--- a/Consumer_discretionary_result.xlsx
+++ b/Consumer_discretionary_result.xlsx
@@ -366,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D526"/>
+  <dimension ref="A1:D524"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -380,7 +380,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -388,13 +388,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.004395857933684688</v>
+        <v>0.5614525139664804</v>
       </c>
       <c r="C2">
-        <v>0.5614525139664804</v>
+        <v>-0.002565640884599318</v>
       </c>
       <c r="D2">
-        <v>0.005224872670132144</v>
+        <v>-0.00172695777023464</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -402,13 +402,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.002565640884599318</v>
+        <v>0.5614525139664804</v>
       </c>
       <c r="C3">
-        <v>1.122905027932961</v>
+        <v>0.005771828104039756</v>
       </c>
       <c r="D3">
-        <v>0.00325115010840143</v>
+        <v>0.003885073492772472</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -416,13 +416,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.005771828104039756</v>
+        <v>0.5614525139664804</v>
       </c>
       <c r="C4">
-        <v>1.684357541899441</v>
+        <v>0.005139683576732779</v>
       </c>
       <c r="D4">
-        <v>0.002110014427004338</v>
+        <v>0.003459570878631452</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -430,13 +430,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.005139683576732779</v>
+        <v>0.5614525139664804</v>
       </c>
       <c r="C5">
-        <v>2.245810055865922</v>
+        <v>0.01166055672778832</v>
       </c>
       <c r="D5">
-        <v>-0.00433400971151906</v>
+        <v>0.007848833859482533</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -444,13 +444,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.01166055672778832</v>
+        <v>0.5614525139664804</v>
       </c>
       <c r="C6">
-        <v>2.807262569832402</v>
+        <v>-0.0002522884218487675</v>
       </c>
       <c r="D6">
-        <v>-0.004478447434762625</v>
+        <v>-0.0001698177843467001</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -458,13 +458,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-0.0002522884218487675</v>
+        <v>0.5614525139664804</v>
       </c>
       <c r="C7">
-        <v>3.368715083798883</v>
+        <v>0.007051020450941969</v>
       </c>
       <c r="D7">
-        <v>0.00338175856702301</v>
+        <v>0.004746110271679456</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -472,13 +472,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.007051020450941969</v>
+        <v>0.5614525139664804</v>
       </c>
       <c r="C8">
-        <v>3.930167597765363</v>
+        <v>0.007055736796055534</v>
       </c>
       <c r="D8">
-        <v>-0.0002329405826581653</v>
+        <v>0.004749284889331471</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -486,13 +486,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.007055736796055534</v>
+        <v>0.5614525139664804</v>
       </c>
       <c r="C9">
-        <v>4.491620111731844</v>
+        <v>0.006254131385031947</v>
       </c>
       <c r="D9">
-        <v>-0.008549853706294986</v>
+        <v>0.004209716510319803</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -500,13 +500,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.006254131385031947</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C10">
-        <v>5.247362837612394</v>
+        <v>0.00388370834684526</v>
       </c>
       <c r="D10">
-        <v>-0.008997971142659107</v>
+        <v>0.002766698866569003</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -514,13 +514,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.00388370834684526</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C11">
-        <v>6.003105563492945</v>
+        <v>-0.009078357265584813</v>
       </c>
       <c r="D11">
-        <v>-0.01188896198521206</v>
+        <v>-0.006467293244974124</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -528,13 +528,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-0.009078357265584813</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C12">
-        <v>6.758848289373496</v>
+        <v>0.004861363962394449</v>
       </c>
       <c r="D12">
-        <v>-0.01158406352599123</v>
+        <v>0.003463166891937576</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -542,13 +542,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.004861363962394449</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C13">
-        <v>7.514591015254047</v>
+        <v>0.001235821790610991</v>
       </c>
       <c r="D13">
-        <v>-0.03177681595408166</v>
+        <v>0.0008803819550822041</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -556,13 +556,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.001235821790610991</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C14">
-        <v>8.270333741134598</v>
+        <v>0.005472951536186876</v>
       </c>
       <c r="D14">
-        <v>-0.02590955807965653</v>
+        <v>0.003898853224716315</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -570,13 +570,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.005472951536186876</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C15">
-        <v>9.02607646701515</v>
+        <v>0.002048656286297579</v>
       </c>
       <c r="D15">
-        <v>-0.02065903094599566</v>
+        <v>0.00145943374710233</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -584,13 +584,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.002048656286297579</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C16">
-        <v>9.781819192895702</v>
+        <v>0.004763939252276472</v>
       </c>
       <c r="D16">
-        <v>-0.01391786190903843</v>
+        <v>0.003393762907140887</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -598,13 +598,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.004763939252276472</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C17">
-        <v>10.53756191877625</v>
+        <v>0.00193947419454954</v>
       </c>
       <c r="D17">
-        <v>-0.01935091929305368</v>
+        <v>0.00138165397001523</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -612,13 +612,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.00193947419454954</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C18">
-        <v>11.29330464465681</v>
+        <v>-0.0005295376201353008</v>
       </c>
       <c r="D18">
-        <v>-0.02330102305579288</v>
+        <v>-0.0003772351069111723</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -626,13 +626,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-0.0005295376201353008</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C19">
-        <v>12.04904737053736</v>
+        <v>-0.002163424143028614</v>
       </c>
       <c r="D19">
-        <v>-0.02008445697795138</v>
+        <v>-0.00154119274411719</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -640,13 +640,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-0.002163424143028614</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C20">
-        <v>12.80479009641791</v>
+        <v>0.01210358093425423</v>
       </c>
       <c r="D20">
-        <v>-0.02520864440678981</v>
+        <v>0.008622419775529454</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -654,13 +654,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.01210358093425423</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C21">
-        <v>13.56053282229846</v>
+        <v>-0.0002832370870686773</v>
       </c>
       <c r="D21">
-        <v>-0.03284093685262187</v>
+        <v>-0.0002017740926400306</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -668,13 +668,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-0.0002832370870686773</v>
+        <v>0.2705882352941176</v>
       </c>
       <c r="C22">
-        <v>13.83112105759258</v>
+        <v>-0.004764092240175266</v>
       </c>
       <c r="D22">
-        <v>-0.0320529034428699</v>
+        <v>-0.002908543004961238</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -682,13 +682,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-0.004764092240175266</v>
+        <v>0.2705882352941176</v>
       </c>
       <c r="C23">
-        <v>14.1017092928867</v>
+        <v>0.009223618505291853</v>
       </c>
       <c r="D23">
-        <v>-0.03483165685293632</v>
+        <v>0.005631144346401384</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -696,13 +696,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.009223618505291853</v>
+        <v>0.2705882352941176</v>
       </c>
       <c r="C24">
-        <v>14.37229752818082</v>
+        <v>-0.00348426939641211</v>
       </c>
       <c r="D24">
-        <v>-0.03986163612009824</v>
+        <v>-0.002127193779934482</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -710,13 +710,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-0.00348426939641211</v>
+        <v>0.2705882352941176</v>
       </c>
       <c r="C25">
-        <v>14.64288576347493</v>
+        <v>-0.00201447974955471</v>
       </c>
       <c r="D25">
-        <v>-0.0370073158489642</v>
+        <v>-0.001229867242030533</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -724,13 +724,13 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>-0.00201447974955471</v>
+        <v>0.2705882352941176</v>
       </c>
       <c r="C26">
-        <v>14.91347399876905</v>
+        <v>-0.01137582177502683</v>
       </c>
       <c r="D26">
-        <v>-0.04520097879286979</v>
+        <v>-0.006945093667670629</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -738,13 +738,13 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>-0.01137582177502683</v>
+        <v>0.2705882352941176</v>
       </c>
       <c r="C27">
-        <v>15.18406223406317</v>
+        <v>-0.0002549800810625058</v>
       </c>
       <c r="D27">
-        <v>-0.0531862347028107</v>
+        <v>-0.0001556688019020214</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -752,13 +752,13 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>-0.0002549800810625058</v>
+        <v>0.2705882352941176</v>
       </c>
       <c r="C28">
-        <v>15.45465046935729</v>
+        <v>0.01387584848678092</v>
       </c>
       <c r="D28">
-        <v>-0.03563258602052463</v>
+        <v>0.008471393923440046</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -766,13 +766,13 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.01387584848678092</v>
+        <v>0.2705882352941176</v>
       </c>
       <c r="C29">
-        <v>15.72523870465141</v>
+        <v>-0.006381132722841798</v>
       </c>
       <c r="D29">
-        <v>-0.032691749509146</v>
+        <v>-0.003895768177668193</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -780,13 +780,13 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>-0.006381132722841798</v>
+        <v>0.2705882352941176</v>
       </c>
       <c r="C30">
-        <v>15.99582693994553</v>
+        <v>-0.01468208674875537</v>
       </c>
       <c r="D30">
-        <v>-0.02935820072438246</v>
+        <v>-0.008963613330407624</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -794,13 +794,13 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>-0.01468208674875537</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C31">
-        <v>16.75156966582608</v>
+        <v>-0.0006637547348864459</v>
       </c>
       <c r="D31">
-        <v>-0.01878239102734759</v>
+        <v>-0.0004728494801062638</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -808,13 +808,13 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>-0.0006637547348864459</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C32">
-        <v>17.50731239170663</v>
+        <v>-0.004282156204023835</v>
       </c>
       <c r="D32">
-        <v>-0.01170333240784875</v>
+        <v>-0.003050547481447171</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -822,13 +822,13 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>-0.004282156204023835</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C33">
-        <v>18.26305511758718</v>
+        <v>0.0004516177670064181</v>
       </c>
       <c r="D33">
-        <v>-0.009810565292369632</v>
+        <v>0.0003217261062134192</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -836,13 +836,13 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.0004516177670064181</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C34">
-        <v>19.01879784346773</v>
+        <v>-0.02990964855838385</v>
       </c>
       <c r="D34">
-        <v>-0.01042241937615529</v>
+        <v>-0.02130721037103018</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -850,13 +850,13 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>-0.02990964855838385</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C35">
-        <v>19.77454056934829</v>
+        <v>0.008690624106367117</v>
       </c>
       <c r="D35">
-        <v>-0.005357872644544183</v>
+        <v>0.006191077629295823</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -864,13 +864,13 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.008690624106367117</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C36">
-        <v>20.53028329522884</v>
+        <v>0.007777118145399164</v>
       </c>
       <c r="D36">
-        <v>-0.003988306820916327</v>
+        <v>0.005540308910046587</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -878,13 +878,13 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.007777118145399164</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C37">
-        <v>21.28602602110939</v>
+        <v>0.009985067537774839</v>
       </c>
       <c r="D37">
-        <v>-0.003419638001306801</v>
+        <v>0.007113220811706149</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -892,13 +892,13 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.009985067537774839</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C38">
-        <v>22.04176874698994</v>
+        <v>-0.008047483250840592</v>
       </c>
       <c r="D38">
-        <v>0.0008032718196964109</v>
+        <v>-0.005732913185131306</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -906,13 +906,13 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>-0.008047483250840592</v>
+        <v>0.2705882352941176</v>
       </c>
       <c r="C39">
-        <v>22.31235698228406</v>
+        <v>-0.006973232165464971</v>
       </c>
       <c r="D39">
-        <v>0.002152052632642858</v>
+        <v>-0.004257252927598165</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -920,13 +920,13 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>-0.006973232165464971</v>
+        <v>0.2705882352941176</v>
       </c>
       <c r="C40">
-        <v>22.58294521757817</v>
+        <v>0.005678296921697523</v>
       </c>
       <c r="D40">
-        <v>0.006561907433436575</v>
+        <v>0.003466677377155207</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -934,13 +934,13 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.005678296921697523</v>
+        <v>0.2705882352941176</v>
       </c>
       <c r="C41">
-        <v>22.85353345287229</v>
+        <v>-0.009045875943235693</v>
       </c>
       <c r="D41">
-        <v>0.004111592183221925</v>
+        <v>-0.005522630098672773</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -948,13 +948,13 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>-0.009045875943235693</v>
+        <v>0.2705882352941176</v>
       </c>
       <c r="C42">
-        <v>23.12412168816641</v>
+        <v>-0.01347350610926856</v>
       </c>
       <c r="D42">
-        <v>0.0006446858066027563</v>
+        <v>-0.008225758438500321</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -962,13 +962,13 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>-0.01347350610926856</v>
+        <v>0.2705882352941176</v>
       </c>
       <c r="C43">
-        <v>23.39470992346052</v>
+        <v>0.001391138119504198</v>
       </c>
       <c r="D43">
-        <v>-0.006639341940057497</v>
+        <v>0.0008493087124337484</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -976,13 +976,13 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.001391138119504198</v>
+        <v>0.2705882352941176</v>
       </c>
       <c r="C44">
-        <v>23.66529815875464</v>
+        <v>-0.004905413584764595</v>
       </c>
       <c r="D44">
-        <v>-0.003861713730193562</v>
+        <v>-0.002994821604857089</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -990,13 +990,13 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>-0.004905413584764595</v>
+        <v>0.2705882352941176</v>
       </c>
       <c r="C45">
-        <v>23.93588639404876</v>
+        <v>-0.008879567556745016</v>
       </c>
       <c r="D45">
-        <v>0.0001152376776225473</v>
+        <v>-0.005421096570393301</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1004,13 +1004,13 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>-0.008879567556745016</v>
+        <v>0.2705882352941176</v>
       </c>
       <c r="C46">
-        <v>24.20647462934287</v>
+        <v>0.005038813945335008</v>
       </c>
       <c r="D46">
-        <v>0.001788021089658954</v>
+        <v>0.003076264336449143</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1018,13 +1018,13 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.005038813945335008</v>
+        <v>0.2705882352941176</v>
       </c>
       <c r="C47">
-        <v>24.47706286463699</v>
+        <v>-0.0144645096496907</v>
       </c>
       <c r="D47">
-        <v>0.007659885042128449</v>
+        <v>-0.008830779556916073</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1032,13 +1032,13 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>-0.0144645096496907</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C48">
-        <v>25.23280559051754</v>
+        <v>-0.01182781786512876</v>
       </c>
       <c r="D48">
-        <v>0.009808166138082688</v>
+        <v>-0.008425970067504708</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1046,13 +1046,13 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>-0.01182781786512876</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C49">
-        <v>25.9885483163981</v>
+        <v>0.02600058931412175</v>
       </c>
       <c r="D49">
-        <v>0.01482707907009352</v>
+        <v>0.01852245188389089</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1060,13 +1060,13 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.02600058931412175</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C50">
-        <v>26.74429104227865</v>
+        <v>0.004355987963316821</v>
       </c>
       <c r="D50">
-        <v>0.01560399000783659</v>
+        <v>0.003103144181948286</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1074,13 +1074,13 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.004355987963316821</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C51">
-        <v>27.5000337681592</v>
+        <v>0.00493767617661689</v>
       </c>
       <c r="D51">
-        <v>0.01685496607194552</v>
+        <v>0.003517530633428643</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1088,13 +1088,13 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.00493767617661689</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C52">
-        <v>28.25577649403975</v>
+        <v>0.01566496456513899</v>
       </c>
       <c r="D52">
-        <v>0.01906471022484446</v>
+        <v>0.01115949907577869</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1102,13 +1102,13 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.01566496456513899</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C53">
-        <v>29.0115192199203</v>
+        <v>0.01048555199136025</v>
       </c>
       <c r="D53">
-        <v>0.02168332136202571</v>
+        <v>0.007469758853908767</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1116,13 +1116,13 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.01048555199136025</v>
+        <v>0.2705882352941176</v>
       </c>
       <c r="C54">
-        <v>29.28210745521442</v>
+        <v>0.003341356410911267</v>
       </c>
       <c r="D54">
-        <v>0.02279160557717707</v>
+        <v>0.002039943461649017</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1130,13 +1130,13 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.003341356410911267</v>
+        <v>0.2705882352941176</v>
       </c>
       <c r="C55">
-        <v>29.55269569050854</v>
+        <v>-0.001080123671147959</v>
       </c>
       <c r="D55">
-        <v>0.02993089840895774</v>
+        <v>-0.0006594301683996935</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1144,13 +1144,13 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>-0.001080123671147959</v>
+        <v>0.2705882352941176</v>
       </c>
       <c r="C56">
-        <v>29.82328392580265</v>
+        <v>0.008940590499293855</v>
       </c>
       <c r="D56">
-        <v>0.03221436145219442</v>
+        <v>0.005458351905459199</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1158,13 +1158,13 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.008940590499293855</v>
+        <v>0.2705882352941176</v>
       </c>
       <c r="C57">
-        <v>30.09387216109677</v>
+        <v>0.00241773407172996</v>
       </c>
       <c r="D57">
-        <v>0.03100522479085935</v>
+        <v>0.001476059481570391</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1172,13 +1172,13 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.00241773407172996</v>
+        <v>0.2705882352941176</v>
       </c>
       <c r="C58">
-        <v>30.36446039639089</v>
+        <v>0.001003887478046472</v>
       </c>
       <c r="D58">
-        <v>0.02489924593882733</v>
+        <v>0.0006128869372883569</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1186,13 +1186,13 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.001003887478046472</v>
+        <v>0.2705882352941176</v>
       </c>
       <c r="C59">
-        <v>30.635048631685</v>
+        <v>0.007454824572825203</v>
       </c>
       <c r="D59">
-        <v>0.02342804614102301</v>
+        <v>0.004551271631908246</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1200,13 +1200,13 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.007454824572825203</v>
+        <v>0.2705882352941176</v>
       </c>
       <c r="C60">
-        <v>30.90563686697912</v>
+        <v>0.00238104169255493</v>
       </c>
       <c r="D60">
-        <v>0.01866790748708859</v>
+        <v>0.00145365828583263</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1214,13 +1214,13 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.00238104169255493</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C61">
-        <v>31.66137959285967</v>
+        <v>0.006531908304969747</v>
       </c>
       <c r="D61">
-        <v>0.01975334011221284</v>
+        <v>0.004653239041127332</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1228,13 +1228,13 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.006531908304969747</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C62">
-        <v>32.41712231874022</v>
+        <v>-0.003629424381453639</v>
       </c>
       <c r="D62">
-        <v>0.02363545145481031</v>
+        <v>-0.002585550568085893</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1242,13 +1242,13 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>-0.003629424381453639</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C63">
-        <v>33.17286504462077</v>
+        <v>-0.005135206390449731</v>
       </c>
       <c r="D63">
-        <v>0.02666071743171355</v>
+        <v>-0.003658248362443589</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1256,13 +1256,13 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>-0.005135206390449731</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C64">
-        <v>33.92860777050132</v>
+        <v>-0.01078915372077027</v>
       </c>
       <c r="D64">
-        <v>0.02237047240917253</v>
+        <v>-0.007686040429565549</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1270,13 +1270,13 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>-0.01078915372077027</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C65">
-        <v>34.68435049638187</v>
+        <v>0.004114242665963275</v>
       </c>
       <c r="D65">
-        <v>0.02386342434516396</v>
+        <v>0.002930928253136397</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1284,13 +1284,13 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.004114242665963275</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C66">
-        <v>35.44009322226243</v>
+        <v>0.005890688719388137</v>
       </c>
       <c r="D66">
-        <v>0.01993041747903564</v>
+        <v>0.004196443282483005</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1298,13 +1298,13 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.005890688719388137</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C67">
-        <v>36.19583594814298</v>
+        <v>0.002477738690972231</v>
       </c>
       <c r="D67">
-        <v>0.01601879542834885</v>
+        <v>0.001765105980096442</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1312,13 +1312,13 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.002477738690972231</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C68">
-        <v>36.95157867402353</v>
+        <v>0.008697446661936503</v>
       </c>
       <c r="D68">
-        <v>0.008006829876213987</v>
+        <v>0.006195937921335069</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1326,13 +1326,13 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.008697446661936503</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C69">
-        <v>37.70732139990408</v>
+        <v>0.003182049243332763</v>
       </c>
       <c r="D69">
-        <v>-0.0008179009646016415</v>
+        <v>0.002266846850651599</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1340,13 +1340,13 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.003182049243332763</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C70">
-        <v>38.46306412578463</v>
+        <v>0.007434049542089483</v>
       </c>
       <c r="D70">
-        <v>-0.006002738074714639</v>
+        <v>0.005295911691933306</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1354,13 +1354,13 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.007434049542089483</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C71">
-        <v>39.21880685166519</v>
+        <v>0.00115076600833941</v>
       </c>
       <c r="D71">
-        <v>-0.02166720387203239</v>
+        <v>0.0008197894194462371</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1368,13 +1368,13 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.00115076600833941</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C72">
-        <v>39.97454957754574</v>
+        <v>0.001852954646262006</v>
       </c>
       <c r="D72">
-        <v>-0.01343319819544388</v>
+        <v>0.001320018668183767</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1382,13 +1382,13 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.001852954646262006</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C73">
-        <v>40.73029230342629</v>
+        <v>0.003273088760559872</v>
       </c>
       <c r="D73">
-        <v>-0.0116522604755742</v>
+        <v>0.002331702114391946</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1396,13 +1396,13 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.003273088760559872</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C74">
-        <v>41.48603502930684</v>
+        <v>0.003878705446574315</v>
       </c>
       <c r="D74">
-        <v>0.001604355646330779</v>
+        <v>0.002763134871213784</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1410,13 +1410,13 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.003878705446574315</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C75">
-        <v>42.24177775518739</v>
+        <v>0.001641598464400928</v>
       </c>
       <c r="D75">
-        <v>-0.004984179041331199</v>
+        <v>0.001169451515201645</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1424,13 +1424,13 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.001641598464400928</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C76">
-        <v>42.99752048106794</v>
+        <v>0.01057477133513007</v>
       </c>
       <c r="D76">
-        <v>-0.01291384568556704</v>
+        <v>0.007533317451836055</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1438,13 +1438,13 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.01057477133513007</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C77">
-        <v>43.7532632069485</v>
+        <v>0.003382281705403223</v>
       </c>
       <c r="D77">
-        <v>-0.003510780907543056</v>
+        <v>0.002409489623070559</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1452,13 +1452,13 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.003382281705403223</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C78">
-        <v>44.50900593282905</v>
+        <v>-0.001790981825205762</v>
       </c>
       <c r="D78">
-        <v>-0.02503964839388907</v>
+        <v>-0.001275870107462499</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1466,13 +1466,13 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>-0.001790981825205762</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C79">
-        <v>45.2647486587096</v>
+        <v>-0.009044219316785451</v>
       </c>
       <c r="D79">
-        <v>-0.02554649904201895</v>
+        <v>-0.006442973853347586</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1480,13 +1480,13 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>-0.009044219316785451</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C80">
-        <v>46.02049138459015</v>
+        <v>-0.002179151607399454</v>
       </c>
       <c r="D80">
-        <v>-0.0182046449807869</v>
+        <v>-0.001552396767170094</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1494,13 +1494,13 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>-0.002179151607399454</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C81">
-        <v>46.7762341104707</v>
+        <v>-0.007050751240345932</v>
       </c>
       <c r="D81">
-        <v>-0.009848123273243366</v>
+        <v>-0.005022855405960358</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1508,13 +1508,13 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>-0.007050751240345932</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C82">
-        <v>47.53197683635126</v>
+        <v>0.001607750526674501</v>
       </c>
       <c r="D82">
-        <v>-0.0103728545302292</v>
+        <v>0.001145338723359416</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1522,13 +1522,13 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.001607750526674501</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C83">
-        <v>48.28771956223181</v>
+        <v>0.00575021094004402</v>
       </c>
       <c r="D83">
-        <v>0.001851775354391046</v>
+        <v>0.004096368900428748</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1536,13 +1536,13 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.00575021094004402</v>
+        <v>0.2705882352941176</v>
       </c>
       <c r="C84">
-        <v>48.55830779752593</v>
+        <v>0.005340589332924139</v>
       </c>
       <c r="D84">
-        <v>0.001436371080517867</v>
+        <v>0.003260502308426265</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1550,13 +1550,13 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.005340589332924139</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C85">
-        <v>49.31405052340648</v>
+        <v>-0.006354741450454782</v>
       </c>
       <c r="D85">
-        <v>-0.01742325871296911</v>
+        <v>-0.004527027881121378</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1564,13 +1564,13 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>-0.006354741450454782</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C86">
-        <v>50.06979324928703</v>
+        <v>0.002211371029238407</v>
       </c>
       <c r="D86">
-        <v>-0.01057702687841175</v>
+        <v>0.001575349427339787</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1578,13 +1578,13 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.002211371029238407</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C87">
-        <v>50.82553597516758</v>
+        <v>-0.005825597751595524</v>
       </c>
       <c r="D87">
-        <v>-0.01333941409230965</v>
+        <v>-0.004150073398152739</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1592,13 +1592,13 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>-0.005825597751595524</v>
+        <v>0.2705882352941176</v>
       </c>
       <c r="C88">
-        <v>51.0961242104617</v>
+        <v>-0.006905299288663791</v>
       </c>
       <c r="D88">
-        <v>-0.005998017970860133</v>
+        <v>-0.004215778983840162</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1606,13 +1606,13 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>-0.006905299288663791</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C89">
-        <v>51.85186693634225</v>
+        <v>-0.01186738037717294</v>
       </c>
       <c r="D89">
-        <v>0.003889280503964155</v>
+        <v>-0.008454153841221949</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1620,13 +1620,13 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>-0.01186738037717294</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C90">
-        <v>52.60760966222281</v>
+        <v>-0.01307125410520804</v>
       </c>
       <c r="D90">
-        <v>9.530721936219485e-05</v>
+        <v>-0.009311776448633364</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1634,13 +1634,13 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>-0.01307125410520804</v>
+        <v>0.2705882352941176</v>
       </c>
       <c r="C91">
-        <v>52.87819789751693</v>
+        <v>-0.009152942575833656</v>
       </c>
       <c r="D91">
-        <v>-0.002414681408020483</v>
+        <v>-0.005587995731747942</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1648,13 +1648,13 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>-0.009152942575833656</v>
+        <v>0.2705882352941176</v>
       </c>
       <c r="C92">
-        <v>53.14878613281105</v>
+        <v>-0.02765293352115261</v>
       </c>
       <c r="D92">
-        <v>0.003375122576455881</v>
+        <v>-0.01688249141806029</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -1662,13 +1662,13 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>-0.02765293352115261</v>
+        <v>0.2705882352941176</v>
       </c>
       <c r="C93">
-        <v>53.41937436810517</v>
+        <v>0.01453572783991675</v>
       </c>
       <c r="D93">
-        <v>0.01608499929024653</v>
+        <v>0.008874259229131723</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -1676,13 +1676,13 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.01453572783991675</v>
+        <v>0.2705882352941176</v>
       </c>
       <c r="C94">
-        <v>53.68996260339929</v>
+        <v>0.003143940751640706</v>
       </c>
       <c r="D94">
-        <v>0.0175206389053098</v>
+        <v>0.001919418520927031</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -1690,13 +1690,13 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.003143940751640706</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C95">
-        <v>54.44570532927984</v>
+        <v>0.01963579411432814</v>
       </c>
       <c r="D95">
-        <v>0.01956726766035692</v>
+        <v>0.01398826185401468</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -1704,13 +1704,13 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.01963579411432814</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C96">
-        <v>55.20144805516039</v>
+        <v>-0.0097589844536774</v>
       </c>
       <c r="D96">
-        <v>0.0169817565854289</v>
+        <v>-0.00695216242197642</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -1718,13 +1718,13 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>-0.0097589844536774</v>
+        <v>0.2705882352941176</v>
       </c>
       <c r="C97">
-        <v>55.47203629045451</v>
+        <v>-0.0139984693634112</v>
       </c>
       <c r="D97">
-        <v>0.01805909143433766</v>
+        <v>-0.008546255633710398</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -1732,13 +1732,13 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>-0.0139984693634112</v>
+        <v>0.2705882352941176</v>
       </c>
       <c r="C98">
-        <v>55.74262452574863</v>
+        <v>0.0165995016086864</v>
       </c>
       <c r="D98">
-        <v>0.02157989644546709</v>
+        <v>0.01013422113926397</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -1746,13 +1746,13 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.0165995016086864</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C99">
-        <v>56.49836725162918</v>
+        <v>-0.0318887116884996</v>
       </c>
       <c r="D99">
-        <v>0.02030616061551393</v>
+        <v>-0.02271706693850582</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -1760,13 +1760,13 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>-0.0318887116884996</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C100">
-        <v>57.25410997750974</v>
+        <v>-0.0007507507860129436</v>
       </c>
       <c r="D100">
-        <v>0.01143503487373833</v>
+        <v>-0.0005348242358170459</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -1774,13 +1774,13 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>-0.0007507507860129436</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C101">
-        <v>58.00985270339029</v>
+        <v>0.01087480646932093</v>
       </c>
       <c r="D101">
-        <v>0.01548883758593144</v>
+        <v>0.00774705823553085</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -1788,13 +1788,13 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.01087480646932093</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C102">
-        <v>58.76559542927084</v>
+        <v>0.01237773940591858</v>
       </c>
       <c r="D102">
-        <v>0.01502557220812124</v>
+        <v>0.008817726391030118</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -1802,13 +1802,13 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.01237773940591858</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C103">
-        <v>59.52133815515139</v>
+        <v>-0.0007772356710624706</v>
       </c>
       <c r="D103">
-        <v>0.0135212791671263</v>
+        <v>-0.0005536916931294002</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -1816,13 +1816,13 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>-0.0007772356710624706</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C104">
-        <v>60.27708088103194</v>
+        <v>0.01810720875756733</v>
       </c>
       <c r="D104">
-        <v>0.005593197419610211</v>
+        <v>0.01289931927740759</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -1830,13 +1830,13 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.01810720875756733</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C105">
-        <v>61.03282360691249</v>
+        <v>-0.0006152997658661619</v>
       </c>
       <c r="D105">
-        <v>0.007150760429549067</v>
+        <v>-0.0004383308458795323</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -1844,13 +1844,13 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>-0.0006152997658661619</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C106">
-        <v>61.78856633279305</v>
+        <v>-0.02793501782747132</v>
       </c>
       <c r="D106">
-        <v>-0.0009320126474895458</v>
+        <v>-0.01990051138202248</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -1858,13 +1858,13 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>-0.02793501782747132</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C107">
-        <v>62.5443090586736</v>
+        <v>0.01014068730105233</v>
       </c>
       <c r="D107">
-        <v>0.005586077011748731</v>
+        <v>0.007224082128835</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -1872,13 +1872,13 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0.01014068730105233</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C108">
-        <v>63.30005178455415</v>
+        <v>-0.004091667594305903</v>
       </c>
       <c r="D108">
-        <v>0.001808814349491523</v>
+        <v>-0.00291484609155547</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -1886,13 +1886,13 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>-0.004091667594305903</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C109">
-        <v>64.05579451043469</v>
+        <v>0.01087412816565703</v>
       </c>
       <c r="D109">
-        <v>-0.0007019870808353465</v>
+        <v>0.007746575021599599</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -1900,13 +1900,13 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>0.01087412816565703</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C110">
-        <v>64.81153723631525</v>
+        <v>0.01464513684436852</v>
       </c>
       <c r="D110">
-        <v>0.004959186854955366</v>
+        <v>0.01043298823944277</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -1914,13 +1914,13 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0.01464513684436852</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C111">
-        <v>65.5672799621958</v>
+        <v>-0.005619660221480416</v>
       </c>
       <c r="D111">
-        <v>-0.0002709002699438218</v>
+        <v>-0.004003366415993198</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -1928,13 +1928,13 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>-0.005619660221480416</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C112">
-        <v>66.32302268807635</v>
+        <v>-0.003717813012262816</v>
       </c>
       <c r="D112">
-        <v>-0.01234423708636047</v>
+        <v>-0.002648517377855731</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -1942,13 +1942,13 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>-0.003717813012262816</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C113">
-        <v>67.0787654139569</v>
+        <v>0.008575898853527164</v>
       </c>
       <c r="D113">
-        <v>-0.008734421668810284</v>
+        <v>0.006109348982690068</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -1956,13 +1956,13 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.008575898853527164</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C114">
-        <v>67.83450813983745</v>
+        <v>0.01882595981323654</v>
       </c>
       <c r="D114">
-        <v>-0.002241775625852627</v>
+        <v>0.01341134735816721</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -1970,13 +1970,13 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>0.01882595981323654</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C115">
-        <v>68.59025086571801</v>
+        <v>0.002126479611729515</v>
       </c>
       <c r="D115">
-        <v>-0.005201683517830206</v>
+        <v>0.001514873982834776</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -1984,13 +1984,13 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0.002126479611729515</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C116">
-        <v>69.34599359159856</v>
+        <v>0.003031481072772735</v>
       </c>
       <c r="D116">
-        <v>-0.01291482095260121</v>
+        <v>0.002159584216687805</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -1998,13 +1998,13 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.003031481072772735</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C117">
-        <v>70.10173631747911</v>
+        <v>-0.003829677398873521</v>
       </c>
       <c r="D117">
-        <v>-0.007391800026414</v>
+        <v>-0.002728207983844895</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2012,13 +2012,13 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>-0.003829677398873521</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C118">
-        <v>70.85747904335966</v>
+        <v>0.001595756042932273</v>
       </c>
       <c r="D118">
-        <v>-0.004088178038942888</v>
+        <v>0.001136794022879613</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2026,13 +2026,13 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0.001595756042932273</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C119">
-        <v>71.61322176924021</v>
+        <v>0.005215041431349654</v>
       </c>
       <c r="D119">
-        <v>0.003616470231414413</v>
+        <v>0.003715121715806935</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2040,13 +2040,13 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>0.005215041431349654</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C120">
-        <v>72.36896449512076</v>
+        <v>-0.001886666573355456</v>
       </c>
       <c r="D120">
-        <v>0.003188353982356471</v>
+        <v>-0.001344034567975796</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2054,13 +2054,13 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>-0.001886666573355456</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C121">
-        <v>73.12470722100132</v>
+        <v>-0.01313997456258775</v>
       </c>
       <c r="D121">
-        <v>0.00963832548304807</v>
+        <v>-0.009360731929983294</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2068,13 +2068,13 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>-0.01313997456258775</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C122">
-        <v>73.88044994688187</v>
+        <v>0.006004521418192077</v>
       </c>
       <c r="D122">
-        <v>0.01238284034047094</v>
+        <v>0.004277536086224352</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2082,13 +2082,13 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0.006004521418192077</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C123">
-        <v>74.63619267276242</v>
+        <v>-0.0006861919735268174</v>
       </c>
       <c r="D123">
-        <v>0.01452693309285917</v>
+        <v>-0.0004888334513964045</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2096,13 +2096,13 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>-0.0006861919735268174</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C124">
-        <v>75.39193539864297</v>
+        <v>-0.002228169554656212</v>
       </c>
       <c r="D124">
-        <v>0.01234059309707884</v>
+        <v>-0.001587316459125586</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2110,13 +2110,13 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>-0.002228169554656212</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C125">
-        <v>76.14767812452352</v>
+        <v>-0.01174313108897795</v>
       </c>
       <c r="D125">
-        <v>0.01550182279931673</v>
+        <v>-0.008365640406607243</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2124,13 +2124,13 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>-0.01174313108897795</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C126">
-        <v>76.90342085040407</v>
+        <v>0.002307073411646599</v>
       </c>
       <c r="D126">
-        <v>0.01063441351309734</v>
+        <v>0.001643526450249289</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2138,13 +2138,13 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>0.002307073411646599</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C127">
-        <v>77.65916357628463</v>
+        <v>-0.01197226098682247</v>
       </c>
       <c r="D127">
-        <v>0.007726811548574552</v>
+        <v>-0.008528869303333856</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2152,13 +2152,13 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>-0.01197226098682247</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C128">
-        <v>78.41490630216518</v>
+        <v>0.009654640776393109</v>
       </c>
       <c r="D128">
-        <v>0.008095376014570211</v>
+        <v>0.006877829462883188</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2166,13 +2166,13 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0.009654640776393109</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C129">
-        <v>79.17064902804573</v>
+        <v>-0.005594908328775183</v>
       </c>
       <c r="D129">
-        <v>0.006662516105412109</v>
+        <v>-0.003985733517902735</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2180,13 +2180,13 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>-0.005594908328775183</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C130">
-        <v>79.92639175392628</v>
+        <v>-0.003719016941766462</v>
       </c>
       <c r="D130">
-        <v>0.008987481434738469</v>
+        <v>-0.002649375040196898</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2194,13 +2194,13 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>-0.003719016941766462</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C131">
-        <v>80.68213447980683</v>
+        <v>0.008385371110271933</v>
       </c>
       <c r="D131">
-        <v>0.005310425157377561</v>
+        <v>0.005973619714620186</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2208,13 +2208,13 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>0.008385371110271933</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C132">
-        <v>81.43787720568739</v>
+        <v>-0.007746842259000353</v>
       </c>
       <c r="D132">
-        <v>0.009368779221188128</v>
+        <v>-0.005518740797020796</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2222,13 +2222,13 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>-0.007746842259000353</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C133">
-        <v>82.19361993156794</v>
+        <v>-0.01788311238856544</v>
       </c>
       <c r="D133">
-        <v>0.006249136049338232</v>
+        <v>-0.01273967619539723</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2236,13 +2236,13 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>-0.01788311238856544</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C134">
-        <v>82.94936265744849</v>
+        <v>0.005346884278607078</v>
       </c>
       <c r="D134">
-        <v>0.01061261134726056</v>
+        <v>0.003809044694438594</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2250,13 +2250,13 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>0.005346884278607078</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C135">
-        <v>83.70510538332904</v>
+        <v>0.009616953510938941</v>
       </c>
       <c r="D135">
-        <v>0.01131937990380782</v>
+        <v>0.006850981588299395</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -2264,13 +2264,13 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>0.009616953510938941</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C136">
-        <v>84.46084810920959</v>
+        <v>-0.004384236627943849</v>
       </c>
       <c r="D136">
-        <v>0.01229194914513378</v>
+        <v>-0.003123268130871787</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2278,13 +2278,13 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>-0.004384236627943849</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C137">
-        <v>85.21659083509014</v>
+        <v>-0.01142475404371268</v>
       </c>
       <c r="D137">
-        <v>0.01261685457425816</v>
+        <v>-0.008138833105025872</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -2292,13 +2292,13 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>-0.01142475404371268</v>
+        <v>0.5614525139664804</v>
       </c>
       <c r="C138">
-        <v>85.77804334905663</v>
+        <v>0.008903144672763652</v>
       </c>
       <c r="D138">
-        <v>0.009412838852017274</v>
+        <v>0.005992793053948208</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -2306,13 +2306,13 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>0.008903144672763652</v>
+        <v>0.5614525139664804</v>
       </c>
       <c r="C139">
-        <v>86.33949586302312</v>
+        <v>0.005325459543185751</v>
       </c>
       <c r="D139">
-        <v>0.009567236374879997</v>
+        <v>0.003584618483974285</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -2320,13 +2320,13 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>0.005325459543185751</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C140">
-        <v>87.09523858890367</v>
+        <v>0.0114121798329867</v>
       </c>
       <c r="D140">
-        <v>0.008033271577761406</v>
+        <v>0.008129875415246766</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -2334,13 +2334,13 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>0.0114121798329867</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C141">
-        <v>87.85098131478422</v>
+        <v>-0.0006341288339495321</v>
       </c>
       <c r="D141">
-        <v>0.007580612800982055</v>
+        <v>-0.0004517444075253565</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -2348,13 +2348,13 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>-0.0006341288339495321</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C142">
-        <v>88.60672404066477</v>
+        <v>0.009553743675325244</v>
       </c>
       <c r="D142">
-        <v>0.004983632794266005</v>
+        <v>0.006805951795912825</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -2362,13 +2362,13 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>0.009553743675325244</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C143">
-        <v>89.36246676654532</v>
+        <v>0.004065194932741711</v>
       </c>
       <c r="D143">
-        <v>0.007339123828313044</v>
+        <v>0.002895987342081089</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -2376,13 +2376,13 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>0.004065194932741711</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C144">
-        <v>90.11820949242588</v>
+        <v>0.0031758454390447</v>
       </c>
       <c r="D144">
-        <v>0.008318749197194919</v>
+        <v>0.002262427348269001</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -2390,13 +2390,13 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>0.0031758454390447</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C145">
-        <v>90.87395221830643</v>
+        <v>-0.003238422356526272</v>
       </c>
       <c r="D145">
-        <v>0.01057781957674122</v>
+        <v>-0.002307006258734891</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -2404,13 +2404,13 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>-0.003238422356526272</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C146">
-        <v>91.62969494418698</v>
+        <v>0.004682435925611017</v>
       </c>
       <c r="D146">
-        <v>0.003999152566129768</v>
+        <v>0.003335701090606675</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -2418,13 +2418,13 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>0.004682435925611017</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C147">
-        <v>92.38543767006753</v>
+        <v>-0.007209641264066313</v>
       </c>
       <c r="D147">
-        <v>0.002090311916139177</v>
+        <v>-0.005136046410350116</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -2432,13 +2432,13 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>-0.007209641264066313</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C148">
-        <v>93.14118039594808</v>
+        <v>-0.004306760716065838</v>
       </c>
       <c r="D148">
-        <v>-0.001441300487181568</v>
+        <v>-0.003068075387638786</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -2446,13 +2446,13 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>-0.004306760716065838</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C149">
-        <v>93.89692312182864</v>
+        <v>0.0005459203091948694</v>
       </c>
       <c r="D149">
-        <v>0.002913133506837564</v>
+        <v>0.0003889059027600107</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -2460,13 +2460,13 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>0.0005459203091948694</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C150">
-        <v>94.65266584770919</v>
+        <v>-0.002122362291566482</v>
       </c>
       <c r="D150">
-        <v>0.008885997770989869</v>
+        <v>-0.001511940862216278</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -2474,13 +2474,13 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>-0.002122362291566482</v>
+        <v>0.5614525139664804</v>
       </c>
       <c r="C151">
-        <v>95.21411836167567</v>
+        <v>0.003747858819076022</v>
       </c>
       <c r="D151">
-        <v>0.0143215322538893</v>
+        <v>0.002522720131331461</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -2488,13 +2488,13 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>0.003747858819076022</v>
+        <v>0.5614525139664804</v>
       </c>
       <c r="C152">
-        <v>95.77557087564216</v>
+        <v>-0.005927437980909112</v>
       </c>
       <c r="D152">
-        <v>0.01990194879296248</v>
+        <v>-0.003989816010557363</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -2502,13 +2502,13 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>-0.005927437980909112</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C153">
-        <v>96.53131360152271</v>
+        <v>0.006011262912588577</v>
       </c>
       <c r="D153">
-        <v>0.01470811526146921</v>
+        <v>0.004282338631431158</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -2516,13 +2516,13 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>0.006011262912588577</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C154">
-        <v>97.28705632740326</v>
+        <v>-0.004620837660931798</v>
       </c>
       <c r="D154">
-        <v>0.009551906398552513</v>
+        <v>-0.00329181935854792</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -2530,13 +2530,13 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>-0.004620837660931798</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C155">
-        <v>98.04279905328382</v>
+        <v>0.006463210655348384</v>
       </c>
       <c r="D155">
-        <v>0.002698581058549216</v>
+        <v>0.004604299807701689</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -2544,13 +2544,13 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>0.006463210655348384</v>
+        <v>0.5614525139664804</v>
       </c>
       <c r="C156">
-        <v>98.6042515672503</v>
+        <v>0.001139315384315331</v>
       </c>
       <c r="D156">
-        <v>0.005425468563700292</v>
+        <v>0.0007668842383600008</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -2558,13 +2558,13 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>0.001139315384315331</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C157">
-        <v>99.35999429313085</v>
+        <v>0.001440576479622813</v>
       </c>
       <c r="D157">
-        <v>0.003920617693523182</v>
+        <v>0.001026246297978565</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -2572,13 +2572,13 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>0.001440576479622813</v>
+        <v>0.2705882352941176</v>
       </c>
       <c r="C158">
-        <v>99.63058252842497</v>
+        <v>0.0005735649302369694</v>
       </c>
       <c r="D158">
-        <v>0.009353619312931161</v>
+        <v>0.0003501691784352281</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -2586,13 +2586,13 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>0.0005735649302369694</v>
+        <v>0.2705882352941176</v>
       </c>
       <c r="C159">
-        <v>99.90117076371908</v>
+        <v>-0.005656141416774396</v>
       </c>
       <c r="D159">
-        <v>0.009842150312652816</v>
+        <v>-0.003453151140546661</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -2600,13 +2600,13 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>-0.005656141416774396</v>
+        <v>0.2705882352941176</v>
       </c>
       <c r="C160">
-        <v>100.1717589990132</v>
+        <v>0.0002725624027526408</v>
       </c>
       <c r="D160">
-        <v>0.008403866873070966</v>
+        <v>0.0001664030480468733</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -2614,13 +2614,13 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>0.0002725624027526408</v>
+        <v>0.2705882352941176</v>
       </c>
       <c r="C161">
-        <v>100.4423472343073</v>
+        <v>-0.002707952323900642</v>
       </c>
       <c r="D161">
-        <v>0.01039397740110174</v>
+        <v>-0.001653241665438448</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -2628,13 +2628,13 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>-0.002707952323900642</v>
+        <v>0.2705882352941176</v>
       </c>
       <c r="C162">
-        <v>100.7129354696014</v>
+        <v>-0.0007990916015909733</v>
       </c>
       <c r="D162">
-        <v>0.01627326929930615</v>
+        <v>-0.0004878562737578719</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -2642,13 +2642,13 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>-0.0007990916015909733</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C163">
-        <v>101.468678195482</v>
+        <v>-0.003846665262233984</v>
       </c>
       <c r="D163">
-        <v>0.01653961569867451</v>
+        <v>-0.002740309897301656</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -2656,13 +2656,13 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>-0.003846665262233984</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C164">
-        <v>102.2244209213625</v>
+        <v>0.003488970077836662</v>
       </c>
       <c r="D164">
-        <v>0.01941366790242109</v>
+        <v>0.002485492909807437</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -2670,13 +2670,13 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>0.003488970077836662</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C165">
-        <v>102.9801636472431</v>
+        <v>0.001451028065959648</v>
       </c>
       <c r="D165">
-        <v>0.02312271572287638</v>
+        <v>0.00103369186018085</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -2684,13 +2684,13 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>0.001451028065959648</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C166">
-        <v>103.7359063731236</v>
+        <v>0.003346151118402751</v>
       </c>
       <c r="D166">
-        <v>0.02310189620143152</v>
+        <v>0.002383750704188075</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -2698,13 +2698,13 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>0.003346151118402751</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C167">
-        <v>104.4916490990042</v>
+        <v>-0.009744368380226298</v>
       </c>
       <c r="D167">
-        <v>0.02550577322581063</v>
+        <v>-0.006941750138087054</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -2712,13 +2712,13 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>-0.009744368380226298</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C168">
-        <v>105.2473918248847</v>
+        <v>-0.002827388351265725</v>
       </c>
       <c r="D168">
-        <v>0.02630056249955808</v>
+        <v>-0.002014191450074137</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -2726,13 +2726,13 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>-0.002827388351265725</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C169">
-        <v>106.0031345507653</v>
+        <v>-0.005231049417552924</v>
       </c>
       <c r="D169">
-        <v>0.02542278475610686</v>
+        <v>-0.003726525578643498</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -2740,13 +2740,13 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>-0.005231049417552924</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C170">
-        <v>106.7588772766458</v>
+        <v>0.006449818611682367</v>
       </c>
       <c r="D170">
-        <v>0.02630056249955808</v>
+        <v>0.004594759505309541</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -2754,13 +2754,13 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>0.006449818611682367</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C171">
-        <v>107.5146200025264</v>
+        <v>0.008847049042170596</v>
       </c>
       <c r="D171">
-        <v>0.03589515645844428</v>
+        <v>0.006302512539937907</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -2768,13 +2768,13 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>0.008847049042170596</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C172">
-        <v>108.2703627284069</v>
+        <v>0.008051152347331225</v>
       </c>
       <c r="D172">
-        <v>0.0362491668493722</v>
+        <v>0.005735526997548557</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -2782,13 +2782,13 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>0.008051152347331225</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C173">
-        <v>109.0261054542875</v>
+        <v>0.008265752679703198</v>
       </c>
       <c r="D173">
-        <v>0.03138574285020134</v>
+        <v>0.005888405237445525</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -2796,13 +2796,13 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>0.008265752679703198</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C174">
-        <v>109.781848180168</v>
+        <v>-0.007693143178520323</v>
       </c>
       <c r="D174">
-        <v>0.03239272265390589</v>
+        <v>-0.005480486332001408</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -2810,13 +2810,13 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>-0.007693143178520323</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C175">
-        <v>110.5375909060486</v>
+        <v>-0.007637413251742942</v>
       </c>
       <c r="D175">
-        <v>0.04104401758572364</v>
+        <v>-0.005440785120819008</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -2824,13 +2824,13 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>-0.007637413251742942</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C176">
-        <v>111.2933336319291</v>
+        <v>-0.01015119425178579</v>
       </c>
       <c r="D176">
-        <v>0.03526837528293474</v>
+        <v>-0.007231567131849958</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -2838,13 +2838,13 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>-0.01015119425178579</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C177">
-        <v>112.0490763578097</v>
+        <v>0.004039085173146439</v>
       </c>
       <c r="D177">
-        <v>0.03773127027018314</v>
+        <v>0.002877387118833814</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -2852,13 +2852,13 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>0.004039085173146439</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C178">
-        <v>112.8048190836902</v>
+        <v>-0.002228995815209522</v>
       </c>
       <c r="D178">
-        <v>0.03688183831448587</v>
+        <v>-0.00158790507545106</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -2866,13 +2866,13 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>-0.002228995815209522</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C179">
-        <v>113.5605618095708</v>
+        <v>0.008047400651907566</v>
       </c>
       <c r="D179">
-        <v>0.03790102848751298</v>
+        <v>0.005732854342820305</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -2880,13 +2880,13 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>0.008047400651907566</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C180">
-        <v>114.3163045354514</v>
+        <v>0.0007236155924550403</v>
       </c>
       <c r="D180">
-        <v>0.04165871026750497</v>
+        <v>0.0005154935079260689</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -2894,13 +2894,13 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>0.0007236155924550403</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C181">
-        <v>115.0720472613319</v>
+        <v>-0.002130395663415996</v>
       </c>
       <c r="D181">
-        <v>0.03797570858259482</v>
+        <v>-0.001517663722638799</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -2908,13 +2908,13 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>-0.002130395663415996</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C182">
-        <v>115.8277899872125</v>
+        <v>0.002947765872815644</v>
       </c>
       <c r="D182">
-        <v>0.0401378456621692</v>
+        <v>0.002099946692921629</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -2922,13 +2922,13 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>0.002947765872815644</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C183">
-        <v>116.583532713093</v>
+        <v>0.008708448988005379</v>
       </c>
       <c r="D183">
-        <v>0.03935241493376484</v>
+        <v>0.006203775822728749</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -2936,13 +2936,13 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>0.008708448988005379</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C184">
-        <v>117.3392754389736</v>
+        <v>0.0003945141816732445</v>
       </c>
       <c r="D184">
-        <v>0.03761581029578445</v>
+        <v>0.0002810463201149981</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -2950,13 +2950,13 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>0.0003945141816732445</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C185">
-        <v>118.0950181648541</v>
+        <v>0.00425706657171343</v>
       </c>
       <c r="D185">
-        <v>0.04363409211747839</v>
+        <v>0.003032673982441456</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -2964,13 +2964,13 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>0.00425706657171343</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C186">
-        <v>118.8507608907347</v>
+        <v>0.0054938680197818</v>
       </c>
       <c r="D186">
-        <v>0.04553658309722124</v>
+        <v>0.003913753831632819</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -2978,13 +2978,13 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>0.0054938680197818</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C187">
-        <v>119.6065036166152</v>
+        <v>-3.083802328518459e-05</v>
       </c>
       <c r="D187">
-        <v>0.04438766255617863</v>
+        <v>-2.196857138864556e-05</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -2992,13 +2992,13 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>-3.083802328518459e-05</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C188">
-        <v>120.3622463424958</v>
+        <v>0.003560639750959993</v>
       </c>
       <c r="D188">
-        <v>0.04368121492042305</v>
+        <v>0.002536549370717732</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3006,13 +3006,13 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>0.003560639750959993</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C189">
-        <v>121.1179890683763</v>
+        <v>0.00117724752682502</v>
       </c>
       <c r="D189">
-        <v>0.04448852332927986</v>
+        <v>0.0008386544784660986</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3020,13 +3020,13 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>0.00117724752682502</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C190">
-        <v>121.8737317942569</v>
+        <v>-0.001300170638574016</v>
       </c>
       <c r="D190">
-        <v>0.03543875384070931</v>
+        <v>-0.0009262231637478702</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3034,13 +3034,13 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>-0.001300170638574016</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C191">
-        <v>122.6294745201374</v>
+        <v>0.001300170638574016</v>
       </c>
       <c r="D191">
-        <v>0.02506305012680308</v>
+        <v>0.0009262231637478702</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3048,13 +3048,13 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>0.001300170638574016</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C192">
-        <v>123.385217246018</v>
+        <v>0.01421158083290663</v>
       </c>
       <c r="D192">
-        <v>0.03165989973671202</v>
+        <v>0.01012412907228102</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3062,13 +3062,13 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>0.01421158083290663</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C193">
-        <v>124.1409599718985</v>
+        <v>0.0005243627096591652</v>
       </c>
       <c r="D193">
-        <v>0.03130089468857472</v>
+        <v>0.0003735485739199525</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3076,13 +3076,13 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>0.0005243627096591652</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C194">
-        <v>124.8967026977791</v>
+        <v>-0.007203738228536594</v>
       </c>
       <c r="D194">
-        <v>0.03080018473601204</v>
+        <v>-0.005131841171374676</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3090,13 +3090,13 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>-0.007203738228536594</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C195">
-        <v>125.6524454236596</v>
+        <v>0.001491545649432879</v>
       </c>
       <c r="D195">
-        <v>0.03632851015705271</v>
+        <v>0.001062556013268597</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -3104,13 +3104,13 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>0.001491545649432879</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C196">
-        <v>126.4081881495402</v>
+        <v>0.01281435960288579</v>
       </c>
       <c r="D196">
-        <v>0.04036576288831226</v>
+        <v>0.009128768440583504</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -3118,13 +3118,13 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>0.01281435960288579</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C197">
-        <v>127.1639308754207</v>
+        <v>-0.008554922469858006</v>
       </c>
       <c r="D197">
-        <v>0.05215518395497325</v>
+        <v>-0.006094405703808346</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -3132,13 +3132,13 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>-0.008554922469858006</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C198">
-        <v>127.9196736013013</v>
+        <v>0.003648057577446906</v>
       </c>
       <c r="D198">
-        <v>0.05549084442239431</v>
+        <v>0.002598824593226582</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -3146,13 +3146,13 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>0.003648057577446906</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C199">
-        <v>128.6754163271818</v>
+        <v>-0.001258184656085959</v>
       </c>
       <c r="D199">
-        <v>0.05443158569527665</v>
+        <v>-0.0008963129439817917</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -3160,13 +3160,13 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>-0.001258184656085959</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C200">
-        <v>129.4311590530624</v>
+        <v>0.001509631735344463</v>
       </c>
       <c r="D200">
-        <v>0.05246092001711631</v>
+        <v>0.001075440284929443</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -3174,13 +3174,13 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>0.001509631735344463</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C201">
-        <v>130.1869017789429</v>
+        <v>0.005565904986655212</v>
       </c>
       <c r="D201">
-        <v>0.0608870504467001</v>
+        <v>0.003965071947412968</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -3188,13 +3188,13 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>0.005565904986655212</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C202">
-        <v>130.9426445048234</v>
+        <v>-0.005455288298506389</v>
       </c>
       <c r="D202">
-        <v>0.06603860565335663</v>
+        <v>-0.003886270184151429</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -3202,13 +3202,13 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>-0.005455288298506389</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C203">
-        <v>131.698387230704</v>
+        <v>0.003202572824849703</v>
       </c>
       <c r="D203">
-        <v>0.07266191562446209</v>
+        <v>0.002281467559687843</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -3216,13 +3216,13 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>0.003202572824849703</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C204">
-        <v>132.4541299565845</v>
+        <v>-0.001163385582881205</v>
       </c>
       <c r="D204">
-        <v>0.07102833171930215</v>
+        <v>-0.0008287794257657711</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -3230,13 +3230,13 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>-0.001163385582881205</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C205">
-        <v>133.2098726824651</v>
+        <v>-0.00257227114489833</v>
       </c>
       <c r="D205">
-        <v>0.06987016268823679</v>
+        <v>-0.001832449562511372</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -3244,13 +3244,13 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>-0.00257227114489833</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C206">
-        <v>133.9656154083456</v>
+        <v>0.008914321851525742</v>
       </c>
       <c r="D206">
-        <v>0.0704203789549592</v>
+        <v>0.006350436737321313</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -3258,13 +3258,13 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>0.008914321851525742</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C207">
-        <v>134.7213581342261</v>
+        <v>0.002817983174519867</v>
       </c>
       <c r="D207">
-        <v>0.07357705990280365</v>
+        <v>0.002007491335256353</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -3272,13 +3272,13 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>0.002817983174519867</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C208">
-        <v>135.4771008601067</v>
+        <v>-0.00170178927941933</v>
       </c>
       <c r="D208">
-        <v>0.07349977173440338</v>
+        <v>-0.001212330600039348</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -3286,13 +3286,13 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>-0.00170178927941933</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C209">
-        <v>136.2328435859872</v>
+        <v>-0.001046395264122424</v>
       </c>
       <c r="D209">
-        <v>0.06236855156205111</v>
+        <v>-0.0007454371782531875</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -3300,13 +3300,13 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>-0.001046395264122424</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C210">
-        <v>136.9885863118677</v>
+        <v>0.001195790958816723</v>
       </c>
       <c r="D210">
-        <v>0.03811602166674567</v>
+        <v>0.0008518645570023554</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -3314,13 +3314,13 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>0.001195790958816723</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C211">
-        <v>137.7443290377483</v>
+        <v>-0.01340458295130631</v>
       </c>
       <c r="D211">
-        <v>0.02029614550449399</v>
+        <v>-0.009549235201539965</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -3328,13 +3328,13 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>-0.01340458295130631</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C212">
-        <v>138.5000717636288</v>
+        <v>-0.01536856615926929</v>
       </c>
       <c r="D212">
-        <v>0.01559653962034471</v>
+        <v>-0.01094834904587526</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -3342,13 +3342,13 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>-0.01536856615926929</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C213">
-        <v>139.2558144895094</v>
+        <v>0.009771300575666331</v>
       </c>
       <c r="D213">
-        <v>-0.01243845291939883</v>
+        <v>0.006960936252991557</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -3356,13 +3356,13 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>0.009771300575666331</v>
+        <v>0.5614525139664804</v>
       </c>
       <c r="C214">
-        <v>139.8172670034758</v>
+        <v>-0.0005787184087360231</v>
       </c>
       <c r="D214">
-        <v>-0.0176598522080917</v>
+        <v>-0.0003895409754123027</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -3370,13 +3370,13 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>-0.0005787184087360231</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C215">
-        <v>140.5730097293564</v>
+        <v>-0.000741655144050668</v>
       </c>
       <c r="D215">
-        <v>0.005535530823351207</v>
+        <v>-0.0005283446291987511</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -3384,13 +3384,13 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>-0.000741655144050668</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C216">
-        <v>141.3287524552369</v>
+        <v>0.008188594945069738</v>
       </c>
       <c r="D216">
-        <v>-0.009033755912726045</v>
+        <v>0.005833439159178905</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -3398,13 +3398,13 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>0.008188594945069738</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C217">
-        <v>142.0844951811175</v>
+        <v>0.005980007468687987</v>
       </c>
       <c r="D217">
-        <v>0.013625979565871</v>
+        <v>0.004260072695503164</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -3412,13 +3412,13 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>0.005980007468687987</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C218">
-        <v>142.840237906998</v>
+        <v>0.0174625743601009</v>
       </c>
       <c r="D218">
-        <v>-0.01018416803606404</v>
+        <v>0.01244009085510073</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -3426,13 +3426,13 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>0.0174625743601009</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C219">
-        <v>143.5959806328785</v>
+        <v>0.004940804015992839</v>
       </c>
       <c r="D219">
-        <v>-0.01980035041868258</v>
+        <v>0.003519758861936913</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -3440,13 +3440,13 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>0.004940804015992839</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C220">
-        <v>144.3517233587591</v>
+        <v>-0.001568981562732219</v>
       </c>
       <c r="D220">
-        <v>-0.0594004575157033</v>
+        <v>-0.001117720262080187</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -3454,13 +3454,13 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>-0.001568981562732219</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C221">
-        <v>145.1074660846396</v>
+        <v>-0.002918964022846637</v>
       </c>
       <c r="D221">
-        <v>-0.02688898523553617</v>
+        <v>-0.002079428662588823</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -3468,13 +3468,13 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>-0.002918964022846637</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C222">
-        <v>145.8632088105201</v>
+        <v>0.01248084434023777</v>
       </c>
       <c r="D222">
-        <v>-0.06106980634763199</v>
+        <v>0.008891176887164905</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -3482,13 +3482,13 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>0.01248084434023777</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C223">
-        <v>146.6189515364007</v>
+        <v>0.007630520222981829</v>
       </c>
       <c r="D223">
-        <v>-0.1250167908288468</v>
+        <v>0.005435874624675268</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -3496,13 +3496,13 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>0.007630520222981829</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C224">
-        <v>147.3746942622812</v>
+        <v>0.009810493850923585</v>
       </c>
       <c r="D224">
-        <v>-0.08837852519083669</v>
+        <v>0.006988856987646994</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -3510,13 +3510,13 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>0.009810493850923585</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C225">
-        <v>148.1304369881618</v>
+        <v>-0.002419676102500823</v>
       </c>
       <c r="D225">
-        <v>-0.1682613994501145</v>
+        <v>-0.001723743013733534</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -3524,13 +3524,13 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>-0.002419676102500823</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C226">
-        <v>148.8861797140423</v>
+        <v>-0.001715488208639648</v>
       </c>
       <c r="D226">
-        <v>-0.14376352914769</v>
+        <v>-0.001222089523357535</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -3538,13 +3538,13 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>-0.001715488208639648</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C227">
-        <v>149.6419224399228</v>
+        <v>0.0008149842487981118</v>
       </c>
       <c r="D227">
-        <v>-0.1751100361901877</v>
+        <v>0.000580583245714863</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -3552,13 +3552,13 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>0.0008149842487981118</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C228">
-        <v>150.3976651658034</v>
+        <v>0.004675698278241214</v>
       </c>
       <c r="D228">
-        <v>-0.1543540262230977</v>
+        <v>0.003330901285967246</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -3566,13 +3566,13 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>0.004675698278241214</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C229">
-        <v>151.1534078916839</v>
+        <v>-0.0001144797849033097</v>
       </c>
       <c r="D229">
-        <v>-0.171427674278536</v>
+        <v>-8.155377872139422e-05</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -3580,13 +3580,13 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>-0.0001144797849033097</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C230">
-        <v>151.9091506175644</v>
+        <v>-0.01648764251266233</v>
       </c>
       <c r="D230">
-        <v>-0.1692512979740702</v>
+        <v>-0.01174556320358916</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -3594,13 +3594,13 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>-0.01648764251266233</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C231">
-        <v>152.664893343445</v>
+        <v>-0.03592301982622192</v>
       </c>
       <c r="D231">
-        <v>-0.1178482553797745</v>
+        <v>-0.025591050964905</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -3608,13 +3608,13 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>-0.03592301982622192</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C232">
-        <v>153.4206360693255</v>
+        <v>-0.0263949273515296</v>
       </c>
       <c r="D232">
-        <v>-0.1110859382883679</v>
+        <v>-0.0188033727213239</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -3622,13 +3622,13 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>-0.0263949273515296</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C233">
-        <v>154.1763787952061</v>
+        <v>-0.006961089671078113</v>
       </c>
       <c r="D233">
-        <v>-0.08495535702967084</v>
+        <v>-0.004958981772846384</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -3636,13 +3636,13 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>-0.006961089671078113</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C234">
-        <v>154.9321215210866</v>
+        <v>-0.04152563040559887</v>
       </c>
       <c r="D234">
-        <v>-0.1062230589619204</v>
+        <v>-0.02958227145713917</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -3650,13 +3650,13 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>-0.04152563040559887</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C235">
-        <v>155.6878642469671</v>
+        <v>-0.007733973774201708</v>
       </c>
       <c r="D235">
-        <v>-0.09275719680603819</v>
+        <v>-0.005509573470556698</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -3664,13 +3664,13 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>-0.007733973774201708</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C236">
-        <v>156.4436069728477</v>
+        <v>0.03435716637036812</v>
       </c>
       <c r="D236">
-        <v>-0.1039270641564418</v>
+        <v>0.02447555912189806</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -3678,13 +3678,13 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>0.03435716637036812</v>
+        <v>0.5614525139664804</v>
       </c>
       <c r="C237">
-        <v>157.0050594868142</v>
+        <v>-0.02348578238681753</v>
       </c>
       <c r="D237">
-        <v>-0.1290272534149479</v>
+        <v>-0.01580850797413472</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -3692,13 +3692,13 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>-0.02348578238681753</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C238">
-        <v>157.7608022126947</v>
+        <v>0.03356376140421347</v>
       </c>
       <c r="D238">
-        <v>-0.1268645523769169</v>
+        <v>0.02391034865176237</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -3706,13 +3706,13 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>0.03356376140421347</v>
+        <v>0.5614525139664804</v>
       </c>
       <c r="C239">
-        <v>158.3222547266612</v>
+        <v>-0.03838210856213919</v>
       </c>
       <c r="D239">
-        <v>-0.1360467787931427</v>
+        <v>-0.02583536964087925</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -3720,13 +3720,13 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>-0.03838210856213919</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C240">
-        <v>159.0779974525417</v>
+        <v>-0.01424355775973041</v>
       </c>
       <c r="D240">
-        <v>-0.08985249193379241</v>
+        <v>-0.01014690898243353</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -3734,13 +3734,13 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>-0.01424355775973041</v>
+        <v>0.5614525139664804</v>
       </c>
       <c r="C241">
-        <v>159.6394499665082</v>
+        <v>-0.06383562315870162</v>
       </c>
       <c r="D241">
-        <v>-0.08224546417825004</v>
+        <v>-0.0429683772555358</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -3748,13 +3748,13 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>-0.06383562315870162</v>
+        <v>0.5614525139664804</v>
       </c>
       <c r="C242">
-        <v>160.2009024804747</v>
+        <v>0.05240869898979295</v>
       </c>
       <c r="D242">
-        <v>-0.06484785545620095</v>
+        <v>0.03527680373804382</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -3762,13 +3762,13 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>0.05240869898979295</v>
+        <v>0.5614525139664804</v>
       </c>
       <c r="C243">
-        <v>160.7623549944412</v>
+        <v>-0.05509969986750107</v>
       </c>
       <c r="D243">
-        <v>-0.05602449133445016</v>
+        <v>-0.03708814253583197</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -3776,13 +3776,13 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>-0.05509969986750107</v>
+        <v>0.5614525139664804</v>
       </c>
       <c r="C244">
-        <v>161.3238075084077</v>
+        <v>-0.1030829435253038</v>
       </c>
       <c r="D244">
-        <v>-0.04922691151049371</v>
+        <v>-0.06938612935593429</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -3790,13 +3790,13 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>-0.1030829435253038</v>
+        <v>0.5614525139664804</v>
       </c>
       <c r="C245">
-        <v>161.8852600223742</v>
+        <v>0.05906111598956709</v>
       </c>
       <c r="D245">
-        <v>-0.02378804643886238</v>
+        <v>0.03975461015965264</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -3804,13 +3804,13 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>0.05906111598956709</v>
+        <v>0.5614525139664804</v>
       </c>
       <c r="C246">
-        <v>162.4467125363406</v>
+        <v>-0.1287716986612102</v>
       </c>
       <c r="D246">
-        <v>-0.03359848613830663</v>
+        <v>-0.08667747965983191</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -3818,13 +3818,13 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>-0.1287716986612102</v>
+        <v>0.5614525139664804</v>
       </c>
       <c r="C247">
-        <v>163.0081650503071</v>
+        <v>0.03949072190600145</v>
       </c>
       <c r="D247">
-        <v>-0.02168137690619413</v>
+        <v>0.02658158803795149</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -3832,13 +3832,13 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>0.03949072190600145</v>
+        <v>0.5614525139664804</v>
       </c>
       <c r="C248">
-        <v>163.5696175642736</v>
+        <v>-0.0505307676568636</v>
       </c>
       <c r="D248">
-        <v>-0.009108860746807156</v>
+        <v>-0.03401274993891833</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -3846,13 +3846,13 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>-0.0505307676568636</v>
+        <v>0.5614525139664804</v>
       </c>
       <c r="C249">
-        <v>164.1310700782401</v>
+        <v>0.03345881937367512</v>
       </c>
       <c r="D249">
-        <v>-0.01702685693222939</v>
+        <v>0.02252145592436235</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -3860,13 +3860,13 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>0.03345881937367512</v>
+        <v>0.5614525139664804</v>
       </c>
       <c r="C250">
-        <v>164.6925225922066</v>
+        <v>-0.02752282867672484</v>
       </c>
       <c r="D250">
-        <v>-0.0337591239883582</v>
+        <v>-0.01852588299766268</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -3874,13 +3874,13 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>-0.02752282867672484</v>
+        <v>0.5614525139664804</v>
       </c>
       <c r="C251">
-        <v>165.2539751061731</v>
+        <v>0.00350833237099657</v>
       </c>
       <c r="D251">
-        <v>-0.02127733036472372</v>
+        <v>0.002361492555340398</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -3888,13 +3888,13 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>0.00350833237099657</v>
+        <v>0.5614525139664804</v>
       </c>
       <c r="C252">
-        <v>165.8154276201396</v>
+        <v>0.08286202984807112</v>
       </c>
       <c r="D252">
-        <v>-0.01929515568814823</v>
+        <v>0.0557752361846577</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -3902,13 +3902,13 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>0.08286202984807112</v>
+        <v>0.5614525139664804</v>
       </c>
       <c r="C253">
-        <v>166.376880134106</v>
+        <v>0.01090089793113602</v>
       </c>
       <c r="D253">
-        <v>-0.01049328987173444</v>
+        <v>0.007337500153553279</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -3916,13 +3916,13 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>0.01090089793113602</v>
+        <v>0.5614525139664804</v>
       </c>
       <c r="C254">
-        <v>166.9383326480725</v>
+        <v>0.04212266229637329</v>
       </c>
       <c r="D254">
-        <v>-0.003122953416996253</v>
+        <v>0.02835317264873263</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -3930,13 +3930,13 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>0.04212266229637329</v>
+        <v>0.5614525139664804</v>
       </c>
       <c r="C255">
-        <v>167.499785162039</v>
+        <v>-0.03428367005857957</v>
       </c>
       <c r="D255">
-        <v>-0.004753995756094985</v>
+        <v>-0.02307667092273948</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -3944,13 +3944,13 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>-0.03428367005857957</v>
+        <v>0.5614525139664804</v>
       </c>
       <c r="C256">
-        <v>168.0612376760055</v>
+        <v>0.02170705498305558</v>
       </c>
       <c r="D256">
-        <v>0.009395466140345983</v>
+        <v>0.01461122930216824</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -3958,13 +3958,13 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>0.02170705498305558</v>
+        <v>0.5614525139664804</v>
       </c>
       <c r="C257">
-        <v>168.622690189972</v>
+        <v>-0.01800589683169562</v>
       </c>
       <c r="D257">
-        <v>0.01182758254427337</v>
+        <v>-0.01211994384334746</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -3972,13 +3972,13 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>-0.01800589683169562</v>
+        <v>0.5614525139664804</v>
       </c>
       <c r="C258">
-        <v>169.1841427039385</v>
+        <v>-0.04046166387359662</v>
       </c>
       <c r="D258">
-        <v>-0.01746896696088815</v>
+        <v>-0.02723513849602632</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -3986,13 +3986,13 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>-0.04046166387359662</v>
+        <v>0.5614525139664804</v>
       </c>
       <c r="C259">
-        <v>169.745595217905</v>
+        <v>0.003486287754991046</v>
       </c>
       <c r="D259">
-        <v>-0.01282724039275549</v>
+        <v>0.002346654110439127</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -4000,13 +4000,13 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>0.003486287754991046</v>
+        <v>0.5614525139664804</v>
       </c>
       <c r="C260">
-        <v>170.3070477318714</v>
+        <v>-0.01480180707158141</v>
       </c>
       <c r="D260">
-        <v>-0.01067533560007739</v>
+        <v>-0.009963239941030815</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -4014,13 +4014,13 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>-0.01480180707158141</v>
+        <v>0.5614525139664804</v>
       </c>
       <c r="C261">
-        <v>170.8685002458379</v>
+        <v>0.07446548265169461</v>
       </c>
       <c r="D261">
-        <v>-0.008725515120856075</v>
+        <v>0.05012343880686964</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -4028,13 +4028,13 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>0.07446548265169461</v>
+        <v>0.5614525139664804</v>
       </c>
       <c r="C262">
-        <v>171.4299527598044</v>
+        <v>0.01226257686553378</v>
       </c>
       <c r="D262">
-        <v>-0.0004501698117861021</v>
+        <v>0.008254059454755045</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -4042,13 +4042,13 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>0.01226257686553378</v>
+        <v>0.5614525139664804</v>
       </c>
       <c r="C263">
-        <v>171.9914052737709</v>
+        <v>0.02804505532074231</v>
       </c>
       <c r="D263">
-        <v>0.00978513012851449</v>
+        <v>0.01887739881818265</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -4056,13 +4056,13 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>0.02804505532074231</v>
+        <v>0.5614525139664804</v>
       </c>
       <c r="C264">
-        <v>172.5528577877374</v>
+        <v>0.01422331878265215</v>
       </c>
       <c r="D264">
-        <v>0.01037776770108436</v>
+        <v>0.009573853861492974</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -4070,13 +4070,13 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>0.01422331878265215</v>
+        <v>0.5614525139664804</v>
       </c>
       <c r="C265">
-        <v>173.1143103017039</v>
+        <v>0.01095774167908559</v>
       </c>
       <c r="D265">
-        <v>-0.003731090592415793</v>
+        <v>0.007375762231773197</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -4084,13 +4084,13 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>0.01095774167908559</v>
+        <v>0.5614525139664804</v>
       </c>
       <c r="C266">
-        <v>173.6757628156704</v>
+        <v>0.04100761142688647</v>
       </c>
       <c r="D266">
-        <v>-0.01126821931177389</v>
+        <v>0.02760262109070821</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -4098,13 +4098,13 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>0.04100761142688647</v>
+        <v>0.5614525139664804</v>
       </c>
       <c r="C267">
-        <v>174.2372153296369</v>
+        <v>-0.0158144908583342</v>
       </c>
       <c r="D267">
-        <v>-0.003191935090115377</v>
+        <v>-0.01064488722254289</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -4112,13 +4112,13 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>-0.0158144908583342</v>
+        <v>0.5614525139664804</v>
       </c>
       <c r="C268">
-        <v>174.7986678436033</v>
+        <v>0.01921045547221389</v>
       </c>
       <c r="D268">
-        <v>0.00337332345173108</v>
+        <v>0.01293074395042136</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -4126,13 +4126,13 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>0.01921045547221389</v>
+        <v>0.5614525139664804</v>
       </c>
       <c r="C269">
-        <v>175.3601203575698</v>
+        <v>0.02026697558521739</v>
       </c>
       <c r="D269">
-        <v>0.02293658256434325</v>
+        <v>0.01364189788841511</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -4140,13 +4140,13 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>0.02026697558521739</v>
+        <v>0.5614525139664804</v>
       </c>
       <c r="C270">
-        <v>175.9215728715363</v>
+        <v>-0.01276385994174944</v>
       </c>
       <c r="D270">
-        <v>0.02234944286100659</v>
+        <v>-0.008591477956601597</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -4154,13 +4154,13 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>-0.01276385994174944</v>
+        <v>0.5614525139664804</v>
       </c>
       <c r="C271">
-        <v>176.4830253855028</v>
+        <v>-0.02697252034619257</v>
       </c>
       <c r="D271">
-        <v>0.03182336682717913</v>
+        <v>-0.01815546512151242</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -4168,13 +4168,13 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>-0.02697252034619257</v>
+        <v>0.5614525139664804</v>
       </c>
       <c r="C272">
-        <v>177.0444778994693</v>
+        <v>0.02012073028365524</v>
       </c>
       <c r="D272">
-        <v>0.03075361174891544</v>
+        <v>0.01354345875712082</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -4182,13 +4182,13 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>0.02012073028365524</v>
+        <v>0.5614525139664804</v>
       </c>
       <c r="C273">
-        <v>177.6059304134358</v>
+        <v>0.003195278118278466</v>
       </c>
       <c r="D273">
-        <v>0.0298264920407678</v>
+        <v>0.002150772700710019</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -4196,13 +4196,13 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>0.003195278118278466</v>
+        <v>0.5614525139664804</v>
       </c>
       <c r="C274">
-        <v>178.1673829274023</v>
+        <v>0.01418866337844626</v>
       </c>
       <c r="D274">
-        <v>0.03728281258163695</v>
+        <v>0.009550526972709269</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -4210,13 +4210,13 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>0.01418866337844626</v>
+        <v>0.5614525139664804</v>
       </c>
       <c r="C275">
-        <v>178.7288354413687</v>
+        <v>0.0118810289912803</v>
       </c>
       <c r="D275">
-        <v>0.04590699308772869</v>
+        <v>0.007997235878971769</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -4224,13 +4224,13 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>0.0118810289912803</v>
+        <v>0.5614525139664804</v>
       </c>
       <c r="C276">
-        <v>179.2902879553352</v>
+        <v>-0.002629250568931596</v>
       </c>
       <c r="D276">
-        <v>0.03881036063115815</v>
+        <v>-0.001769774065874143</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -4238,13 +4238,13 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>-0.002629250568931596</v>
+        <v>0.5614525139664804</v>
       </c>
       <c r="C277">
-        <v>179.8517404693017</v>
+        <v>0.02280902208942681</v>
       </c>
       <c r="D277">
-        <v>0.04336564030950255</v>
+        <v>0.01535297405230617</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -4252,13 +4252,13 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>0.02280902208942681</v>
+        <v>0.5614525139664804</v>
       </c>
       <c r="C278">
-        <v>180.4131929832682</v>
+        <v>0.003920587029192291</v>
       </c>
       <c r="D278">
-        <v>0.04950095790704773</v>
+        <v>0.0026389851653</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -4266,13 +4266,13 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>0.003920587029192291</v>
+        <v>0.5614525139664804</v>
       </c>
       <c r="C279">
-        <v>180.9746454972347</v>
+        <v>-0.04722622313823077</v>
       </c>
       <c r="D279">
-        <v>0.05376606131321664</v>
+        <v>-0.03178842896407134</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -4280,13 +4280,13 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>-0.04722622313823077</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C280">
-        <v>181.7303882231152</v>
+        <v>0.006875358416410293</v>
       </c>
       <c r="D280">
-        <v>0.06421118184752297</v>
+        <v>0.004897908040234184</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -4294,13 +4294,13 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>0.006875358416410293</v>
+        <v>0.5614525139664804</v>
       </c>
       <c r="C281">
-        <v>182.2918407370817</v>
+        <v>0.003468884139183004</v>
       </c>
       <c r="D281">
-        <v>0.06049789803865303</v>
+        <v>0.002334939567795887</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -4308,13 +4308,13 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>0.003468884139183004</v>
+        <v>0.5614525139664804</v>
       </c>
       <c r="C282">
-        <v>182.8532932510482</v>
+        <v>0.003143122947464327</v>
       </c>
       <c r="D282">
-        <v>0.07470939257015104</v>
+        <v>0.002115666549246636</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -4322,13 +4322,13 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>0.003143122947464327</v>
+        <v>0.5614525139664804</v>
       </c>
       <c r="C283">
-        <v>183.4147457650147</v>
+        <v>0.01333990898973259</v>
       </c>
       <c r="D283">
-        <v>0.08488218616390392</v>
+        <v>0.008979222159394076</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -4336,13 +4336,13 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>0.01333990898973259</v>
+        <v>0.5614525139664804</v>
       </c>
       <c r="C284">
-        <v>183.9761982789812</v>
+        <v>0.01649936825434661</v>
       </c>
       <c r="D284">
-        <v>0.08460976545388629</v>
+        <v>0.01110588484220252</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -4350,13 +4350,13 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>0.01649936825434661</v>
+        <v>0.5614525139664804</v>
       </c>
       <c r="C285">
-        <v>184.5376507929477</v>
+        <v>0.0009553355161280308</v>
       </c>
       <c r="D285">
-        <v>0.08193039200765576</v>
+        <v>0.0006430456041848116</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -4364,13 +4364,13 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>0.0009553355161280308</v>
+        <v>0.5614525139664804</v>
       </c>
       <c r="C286">
-        <v>185.0991033069141</v>
+        <v>-0.02274356882461959</v>
       </c>
       <c r="D286">
-        <v>0.04793053377116649</v>
+        <v>-0.01530891682476331</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -4378,13 +4378,13 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>-0.02274356882461959</v>
+        <v>0.5614525139664804</v>
       </c>
       <c r="C287">
-        <v>185.6605558208806</v>
+        <v>-0.01214989917700926</v>
       </c>
       <c r="D287">
-        <v>0.05287003169545637</v>
+        <v>-0.0081782150094558</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -4392,13 +4392,13 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>-0.01214989917700926</v>
+        <v>0.5614525139664804</v>
       </c>
       <c r="C288">
-        <v>186.2220083348471</v>
+        <v>0.01301902125752452</v>
       </c>
       <c r="D288">
-        <v>0.05874880034060492</v>
+        <v>0.008763229513721752</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -4406,13 +4406,13 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>0.01301902125752452</v>
+        <v>0.5614525139664804</v>
       </c>
       <c r="C289">
-        <v>186.7834608488136</v>
+        <v>0.01058323830261276</v>
       </c>
       <c r="D289">
-        <v>0.07210655975591464</v>
+        <v>0.007123680375788954</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -4420,13 +4420,13 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>0.01058323830261276</v>
+        <v>0.5614525139664804</v>
       </c>
       <c r="C290">
-        <v>187.3449133627801</v>
+        <v>0.03153609745067332</v>
       </c>
       <c r="D290">
-        <v>0.07260986917799121</v>
+        <v>0.02122725314451889</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -4434,13 +4434,13 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>0.03153609745067332</v>
+        <v>0.5614525139664804</v>
       </c>
       <c r="C291">
-        <v>187.9063658767466</v>
+        <v>-0.0009464729161434704</v>
       </c>
       <c r="D291">
-        <v>0.07121516902412992</v>
+        <v>-0.0006370801021538412</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -4448,13 +4448,13 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>-0.0009464729161434704</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C292">
-        <v>188.6621086026271</v>
+        <v>0.01403284358118917</v>
       </c>
       <c r="D292">
-        <v>0.06818989071091741</v>
+        <v>0.009996799183531245</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -4462,13 +4462,13 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>0.01403284358118917</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C293">
-        <v>189.4178513285077</v>
+        <v>-0.001584528832726306</v>
       </c>
       <c r="D293">
-        <v>0.07558976285618163</v>
+        <v>-0.001128795917209086</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -4476,13 +4476,13 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>-0.001584528832726306</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C294">
-        <v>190.1735940543882</v>
+        <v>-0.001373256307727111</v>
       </c>
       <c r="D294">
-        <v>0.08257898823377503</v>
+        <v>-0.0009782883601915104</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -4490,13 +4490,13 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>-0.001373256307727111</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C295">
-        <v>190.9293367802687</v>
+        <v>0.01104435503333434</v>
       </c>
       <c r="D295">
-        <v>0.06908528213075703</v>
+        <v>0.007867842233192607</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -4504,13 +4504,13 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>0.01104435503333434</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C296">
-        <v>191.6850795061493</v>
+        <v>0.01277419752259412</v>
       </c>
       <c r="D296">
-        <v>0.07115052973722197</v>
+        <v>0.009100157542931447</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -4518,13 +4518,13 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>0.01277419752259412</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C297">
-        <v>192.4408222320298</v>
+        <v>-0.01051158248386042</v>
       </c>
       <c r="D297">
-        <v>0.05521047720648729</v>
+        <v>-0.007488302608399222</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -4532,13 +4532,13 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>-0.01051158248386042</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C298">
-        <v>193.1965649579103</v>
+        <v>0.006747312668227146</v>
       </c>
       <c r="D298">
-        <v>0.0641066773727816</v>
+        <v>0.004806690061248954</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -4546,13 +4546,13 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>0.006747312668227146</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C299">
-        <v>193.9523076837909</v>
+        <v>0.009087676075370865</v>
       </c>
       <c r="D299">
-        <v>0.07567324203706717</v>
+        <v>0.006473931833191951</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -4560,13 +4560,13 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>0.009087676075370865</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C300">
-        <v>194.7080504096714</v>
+        <v>0.006317501509413681</v>
       </c>
       <c r="D300">
-        <v>0.08742369948683147</v>
+        <v>0.004500498674119208</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -4574,13 +4574,13 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>0.006317501509413681</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C301">
-        <v>195.463793135552</v>
+        <v>0.01547138684751381</v>
       </c>
       <c r="D301">
-        <v>0.09006254599336712</v>
+        <v>0.01102159704912891</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -4588,13 +4588,13 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>0.01547138684751381</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C302">
-        <v>196.2195358614325</v>
+        <v>-0.00550014239595864</v>
       </c>
       <c r="D302">
-        <v>0.1114253836557787</v>
+        <v>-0.003918223608430294</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -4602,13 +4602,13 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>-0.00550014239595864</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C303">
-        <v>196.975278587313</v>
+        <v>0.02105016680812621</v>
       </c>
       <c r="D303">
-        <v>0.09968613328703121</v>
+        <v>0.01499584094579069</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -4616,13 +4616,13 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>0.02105016680812621</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C304">
-        <v>197.7310213131936</v>
+        <v>0.01506801424568849</v>
       </c>
       <c r="D304">
-        <v>0.1099561229418314</v>
+        <v>0.01073424011585619</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -4630,13 +4630,13 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>0.01506801424568849</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C305">
-        <v>198.4867640390741</v>
+        <v>-0.0004035114938227835</v>
       </c>
       <c r="D305">
-        <v>0.1151482020681538</v>
+        <v>-0.0002874558779661992</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -4644,13 +4644,13 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>-0.0004035114938227835</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C306">
-        <v>199.2425067649546</v>
+        <v>-0.003968707011033246</v>
       </c>
       <c r="D306">
-        <v>0.1218915237927563</v>
+        <v>-0.002827250712090514</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -4658,13 +4658,13 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>-0.003968707011033246</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C307">
-        <v>199.9982494908352</v>
+        <v>-0.05036083191282081</v>
       </c>
       <c r="D307">
-        <v>0.1101208880510319</v>
+        <v>-0.0358763439808383</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -4672,13 +4672,13 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>-0.05036083191282081</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C308">
-        <v>200.7539922167157</v>
+        <v>0.007316419467652935</v>
       </c>
       <c r="D308">
-        <v>0.1141420904244996</v>
+        <v>0.005212113691529289</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -4686,13 +4686,13 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>0.007316419467652935</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C309">
-        <v>201.5097349425963</v>
+        <v>0.008707673941856342</v>
       </c>
       <c r="D309">
-        <v>0.1172706585388095</v>
+        <v>0.006203223690820125</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -4700,13 +4700,13 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>0.008707673941856342</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C310">
-        <v>202.2654776684768</v>
+        <v>0.019785608280106</v>
       </c>
       <c r="D310">
-        <v>0.1154327928575962</v>
+        <v>0.01409498734564185</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -4714,13 +4714,13 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>0.019785608280106</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C311">
-        <v>203.0212203943573</v>
+        <v>0.0007455054967886454</v>
       </c>
       <c r="D311">
-        <v>0.110883165906077</v>
+        <v>0.0005310875660015896</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -4728,13 +4728,13 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>0.0007455054967886454</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C312">
-        <v>203.7769631202379</v>
+        <v>-0.002065839790532209</v>
       </c>
       <c r="D312">
-        <v>0.1317430198168837</v>
+        <v>-0.001471675032349265</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -4742,13 +4742,13 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>-0.002065839790532209</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C313">
-        <v>204.5327058461184</v>
+        <v>-0.004481063760956694</v>
       </c>
       <c r="D313">
-        <v>0.1292980380534334</v>
+        <v>-0.003192246410195303</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -4756,13 +4756,13 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>-0.004481063760956694</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C314">
-        <v>205.2884485719989</v>
+        <v>0.01096074326816066</v>
       </c>
       <c r="D314">
-        <v>0.1315066045950889</v>
+        <v>0.007808278394902387</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -4770,13 +4770,13 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>0.01096074326816066</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C315">
-        <v>206.0441912978795</v>
+        <v>0.01035249035432884</v>
       </c>
       <c r="D315">
-        <v>0.1176509069674971</v>
+        <v>0.007374967626689637</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -4784,13 +4784,13 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>0.01035249035432884</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C316">
-        <v>206.79993402376</v>
+        <v>-0.01998697348113598</v>
       </c>
       <c r="D316">
-        <v>0.1198677715878051</v>
+        <v>-0.01423843706526578</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -4798,13 +4798,13 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>-0.01998697348113598</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C317">
-        <v>207.5556767496406</v>
+        <v>0.003059059447957146</v>
       </c>
       <c r="D317">
-        <v>0.1257122687709478</v>
+        <v>0.002179230660897887</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -4812,13 +4812,13 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>0.003059059447957146</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C318">
-        <v>208.3114194755211</v>
+        <v>-0.02361051921446933</v>
       </c>
       <c r="D318">
-        <v>0.1173732863577287</v>
+        <v>-0.01681979976762159</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -4826,13 +4826,13 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>-0.02361051921446933</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C319">
-        <v>209.0671622014016</v>
+        <v>0.01317711497857754</v>
       </c>
       <c r="D319">
-        <v>0.1244590087127026</v>
+        <v>0.009387190236747323</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -4840,13 +4840,13 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>0.01317711497857754</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C320">
-        <v>209.8229049272822</v>
+        <v>0.01713247787138439</v>
       </c>
       <c r="D320">
-        <v>0.1251515732961633</v>
+        <v>0.01220493478785066</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -4854,13 +4854,13 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>0.01713247787138439</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C321">
-        <v>210.5786476531627</v>
+        <v>0.01740486117354578</v>
       </c>
       <c r="D321">
-        <v>0.133713861852722</v>
+        <v>0.01239897679771848</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -4868,13 +4868,13 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>0.01740486117354578</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C322">
-        <v>211.3343903790432</v>
+        <v>0.003908678219627149</v>
       </c>
       <c r="D322">
-        <v>0.1300034328834196</v>
+        <v>0.002784487050581363</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -4882,13 +4882,13 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>0.003908678219627149</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C323">
-        <v>212.0901331049238</v>
+        <v>0.03164278713206414</v>
       </c>
       <c r="D323">
-        <v>0.1355379526970383</v>
+        <v>0.02254187376466614</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -4896,13 +4896,13 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>0.03164278713206414</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C324">
-        <v>212.8458758308043</v>
+        <v>-0.01738826116541059</v>
       </c>
       <c r="D324">
-        <v>0.1449503800601166</v>
+        <v>-0.01238715118683552</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -4910,13 +4910,13 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>-0.01738826116541059</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C325">
-        <v>213.6016185566849</v>
+        <v>0.01521198174281579</v>
       </c>
       <c r="D325">
-        <v>0.148308829749499</v>
+        <v>0.01083680052347497</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -4924,13 +4924,13 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>0.01521198174281579</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C326">
-        <v>214.3573612825654</v>
+        <v>0.00769054454109952</v>
       </c>
       <c r="D326">
-        <v>0.1463223682061004</v>
+        <v>0.005478635099477061</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -4938,13 +4938,13 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>0.00769054454109952</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C327">
-        <v>215.1131040084459</v>
+        <v>0.009988256114030314</v>
       </c>
       <c r="D327">
-        <v>0.1509273254294676</v>
+        <v>0.007115492308307885</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -4952,13 +4952,13 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>0.009988256114030314</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C328">
-        <v>215.8688467343265</v>
+        <v>-0.01743474940315615</v>
       </c>
       <c r="D328">
-        <v>0.1466230225195906</v>
+        <v>-0.01242026874953404</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -4966,13 +4966,13 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>-0.01743474940315615</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C329">
-        <v>216.624589460207</v>
+        <v>0.005956233564536006</v>
       </c>
       <c r="D329">
-        <v>0.157807669196388</v>
+        <v>0.004243136502618177</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -4980,13 +4980,13 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>0.005956233564536006</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C330">
-        <v>217.3803321860875</v>
+        <v>0.004634057349200305</v>
       </c>
       <c r="D330">
-        <v>0.1574209410066479</v>
+        <v>0.003301236877393943</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -4994,13 +4994,13 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>0.004634057349200305</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C331">
-        <v>218.1360749119681</v>
+        <v>-0.00272225972255935</v>
       </c>
       <c r="D331">
-        <v>0.1567721051580389</v>
+        <v>-0.001939299302695937</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -5008,13 +5008,13 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>-0.00272225972255935</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C332">
-        <v>218.8918176378486</v>
+        <v>-0.00673893980903717</v>
       </c>
       <c r="D332">
-        <v>0.1648662084567324</v>
+        <v>-0.004800725354849292</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -5022,13 +5022,13 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>-0.00673893980903717</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C333">
-        <v>219.6475603637292</v>
+        <v>0.03089776402069511</v>
       </c>
       <c r="D333">
-        <v>0.1746524195807118</v>
+        <v>0.02201112984321108</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -5036,13 +5036,13 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>0.03089776402069511</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C334">
-        <v>220.4033030896097</v>
+        <v>-0.003621524382912966</v>
       </c>
       <c r="D334">
-        <v>0.1697938024603198</v>
+        <v>-0.002579922720921177</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -5050,13 +5050,13 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>-0.003621524382912966</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C335">
-        <v>221.1590458154902</v>
+        <v>0.003271344474407911</v>
       </c>
       <c r="D335">
-        <v>0.1707649806854518</v>
+        <v>0.002330459509621296</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -5064,13 +5064,13 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>0.003271344474407911</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C336">
-        <v>221.9147885413708</v>
+        <v>-0.0205231579027334</v>
       </c>
       <c r="D336">
-        <v>0.1728922199166976</v>
+        <v>-0.01462040725947734</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -5078,13 +5078,13 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>-0.0205231579027334</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C337">
-        <v>222.6705312672513</v>
+        <v>0.003283635647544969</v>
       </c>
       <c r="D337">
-        <v>0.1816037740764417</v>
+        <v>0.002339215567427419</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -5092,13 +5092,13 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>0.003283635647544969</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C338">
-        <v>223.4262739931318</v>
+        <v>0.008656910808507945</v>
       </c>
       <c r="D338">
-        <v>0.1851729182084944</v>
+        <v>0.006167060752989692</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -5106,13 +5106,13 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>0.008656910808507945</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C339">
-        <v>224.1820167190124</v>
+        <v>-0.01235176007838135</v>
       </c>
       <c r="D339">
-        <v>0.1949887358582393</v>
+        <v>-0.008799219085735202</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -5120,13 +5120,13 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>-0.01235176007838135</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C340">
-        <v>224.9377594448929</v>
+        <v>0.01049542236375522</v>
       </c>
       <c r="D340">
-        <v>0.1901284756325763</v>
+        <v>0.007476790367523831</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -5134,13 +5134,13 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>0.01049542236375522</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C341">
-        <v>225.6935021707735</v>
+        <v>0.001025831588291837</v>
       </c>
       <c r="D341">
-        <v>0.1934534357618737</v>
+        <v>0.0007307879065952906</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -5148,13 +5148,13 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>0.001025831588291837</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C342">
-        <v>226.449244896654</v>
+        <v>0.01268252272661385</v>
       </c>
       <c r="D342">
-        <v>0.1945796637619034</v>
+        <v>0.009034849715597405</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -5162,13 +5162,13 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>0.01268252272661385</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C343">
-        <v>227.2049876225345</v>
+        <v>-0.005495913787280315</v>
       </c>
       <c r="D343">
-        <v>0.2019212820617461</v>
+        <v>-0.003915211207448386</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -5176,13 +5176,13 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>-0.005495913787280315</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C344">
-        <v>227.9607303484151</v>
+        <v>0.008197770123426373</v>
       </c>
       <c r="D344">
-        <v>0.2102105845151052</v>
+        <v>0.005839975426398994</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -5190,13 +5190,13 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>0.008197770123426373</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C345">
-        <v>228.7164730742956</v>
+        <v>0.01394175437516676</v>
       </c>
       <c r="D345">
-        <v>0.1857241231328861</v>
+        <v>0.009931908522196291</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -5204,13 +5204,13 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>0.01394175437516676</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C346">
-        <v>229.4722158001761</v>
+        <v>0.004974559573696524</v>
       </c>
       <c r="D346">
-        <v>0.1761480327140642</v>
+        <v>0.003543805843558242</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -5218,13 +5218,13 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>0.004974559573696524</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C347">
-        <v>230.2279585260567</v>
+        <v>-0.002942360970817681</v>
       </c>
       <c r="D347">
-        <v>0.1619171607791437</v>
+        <v>-0.00209609631722495</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -5232,13 +5232,13 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>-0.002942360970817681</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C348">
-        <v>230.9837012519372</v>
+        <v>0.006820895401347116</v>
       </c>
       <c r="D348">
-        <v>0.1773531889579383</v>
+        <v>0.00485910935902847</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -5246,13 +5246,13 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>0.006820895401347116</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C349">
-        <v>231.7394439778178</v>
+        <v>-0.006375564093191954</v>
       </c>
       <c r="D349">
-        <v>0.165293680789613</v>
+        <v>-0.004541861637138793</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -5260,13 +5260,13 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>-0.006375564093191954</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C350">
-        <v>232.4951867036983</v>
+        <v>0.01656677823115071</v>
       </c>
       <c r="D350">
-        <v>0.1631592480088971</v>
+        <v>0.01180193836956288</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -5274,13 +5274,13 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>0.01656677823115071</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C351">
-        <v>233.2509294295788</v>
+        <v>-0.0005728245460314696</v>
       </c>
       <c r="D351">
-        <v>0.1678528463732044</v>
+        <v>-0.0004080721003510811</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -5288,13 +5288,13 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>-0.0005728245460314696</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C352">
-        <v>234.0066721554594</v>
+        <v>-0.000961060275120218</v>
       </c>
       <c r="D352">
-        <v>0.1747633194333849</v>
+        <v>-0.0006846457396934763</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -5302,13 +5302,13 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>-0.000961060275120218</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C353">
-        <v>234.7624148813399</v>
+        <v>0.01198904339174689</v>
       </c>
       <c r="D353">
-        <v>0.1678640494436316</v>
+        <v>0.008540824851108296</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -5316,13 +5316,13 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>0.01198904339174689</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C354">
-        <v>235.5181576072204</v>
+        <v>0.0144954055411084</v>
       </c>
       <c r="D354">
-        <v>0.1570624509123739</v>
+        <v>0.01032632177790063</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -5330,13 +5330,13 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>0.0144954055411084</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C355">
-        <v>236.273900333101</v>
+        <v>-0.007196618245490782</v>
       </c>
       <c r="D355">
-        <v>0.1472412557009789</v>
+        <v>-0.005126768996210227</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -5344,13 +5344,13 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>-0.007196618245490782</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C356">
-        <v>237.0296430589815</v>
+        <v>0.001438516096539999</v>
       </c>
       <c r="D356">
-        <v>0.1397673098182272</v>
+        <v>0.001024778510227574</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -5358,13 +5358,13 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>0.001438516096539999</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C357">
-        <v>237.7853857848621</v>
+        <v>0.003150881883623669</v>
       </c>
       <c r="D357">
-        <v>0.1594431252910646</v>
+        <v>0.002244643664655116</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -5372,13 +5372,13 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>0.003150881883623669</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C358">
-        <v>238.5411285107426</v>
+        <v>0.01290361600000622</v>
       </c>
       <c r="D358">
-        <v>0.1441502146007031</v>
+        <v>0.009192353434793412</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -5386,13 +5386,13 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>0.01290361600000622</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C359">
-        <v>239.2968712366231</v>
+        <v>0.005286641681171211</v>
       </c>
       <c r="D359">
-        <v>0.145002531836918</v>
+        <v>0.00376612872053948</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -5400,13 +5400,13 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>0.005286641681171211</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C360">
-        <v>240.0526139625037</v>
+        <v>0.01453925893770869</v>
       </c>
       <c r="D360">
-        <v>0.1555067903790442</v>
+        <v>0.01035756231705382</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -5414,13 +5414,13 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>0.01453925893770869</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C361">
-        <v>240.8083566883842</v>
+        <v>-0.007199052024708052</v>
       </c>
       <c r="D361">
-        <v>0.1700730197384855</v>
+        <v>-0.005128502786083343</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -5428,13 +5428,13 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>-0.007199052024708052</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C362">
-        <v>241.5640994142647</v>
+        <v>0.004924954599036191</v>
       </c>
       <c r="D362">
-        <v>0.1647424159334426</v>
+        <v>0.003508467961587674</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -5442,13 +5442,13 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>0.004924954599036191</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C363">
-        <v>242.3198421401453</v>
+        <v>0.001668176926224341</v>
       </c>
       <c r="D363">
-        <v>0.1692238408867962</v>
+        <v>0.001188385635283477</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -5456,13 +5456,13 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>0.001668176926224341</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C364">
-        <v>243.0755848660258</v>
+        <v>0.01087445725787362</v>
       </c>
       <c r="D364">
-        <v>0.1793882195729818</v>
+        <v>0.007746809462237597</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -5470,13 +5470,13 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>0.01087445725787362</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C365">
-        <v>243.8313275919064</v>
+        <v>0.01227817376838747</v>
       </c>
       <c r="D365">
-        <v>0.1722413950748795</v>
+        <v>0.008746797239841333</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -5484,13 +5484,13 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>0.01227817376838747</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C366">
-        <v>244.5870703177869</v>
+        <v>-0.03626952080895052</v>
       </c>
       <c r="D366">
-        <v>0.1829416764010574</v>
+        <v>-0.02583789336154351</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -5498,13 +5498,13 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>-0.03626952080895052</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C367">
-        <v>245.3428130436674</v>
+        <v>-0.01418417325771948</v>
       </c>
       <c r="D367">
-        <v>0.1684127722861685</v>
+        <v>-0.01010460430357193</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -5512,13 +5512,13 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>-0.01418417325771948</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C368">
-        <v>246.098555769548</v>
+        <v>-0.02107886875593667</v>
       </c>
       <c r="D368">
-        <v>0.1848616433911369</v>
+        <v>-0.0150162878072395</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -5526,13 +5526,13 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>-0.02107886875593667</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C369">
-        <v>246.8542984954285</v>
+        <v>0.02286395475848035</v>
       </c>
       <c r="D369">
-        <v>0.1878483242715428</v>
+        <v>0.01628795781407139</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -5540,13 +5540,13 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>0.02286395475848035</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C370">
-        <v>247.610041221309</v>
+        <v>-0.01786262929662819</v>
       </c>
       <c r="D370">
-        <v>0.1978935431397517</v>
+        <v>-0.01272508433056457</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -5554,13 +5554,13 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>-0.01786262929662819</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C371">
-        <v>248.3657839471896</v>
+        <v>-0.003161537020277549</v>
       </c>
       <c r="D371">
-        <v>0.2122382567094508</v>
+        <v>-0.002252234233222752</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -5568,13 +5568,13 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>-0.003161537020277549</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C372">
-        <v>249.1215266730701</v>
+        <v>0.006952191289947507</v>
       </c>
       <c r="D372">
-        <v>0.2124637607594494</v>
+        <v>0.004952642692053063</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -5582,13 +5582,13 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>0.006952191289947507</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C373">
-        <v>249.8772693989507</v>
+        <v>0.0102358418614914</v>
       </c>
       <c r="D373">
-        <v>0.2027569350550236</v>
+        <v>0.007291868891126122</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -5596,13 +5596,13 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>0.0102358418614914</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C374">
-        <v>250.6330121248312</v>
+        <v>-0.01021924779387007</v>
       </c>
       <c r="D374">
-        <v>0.2033471235045144</v>
+        <v>-0.007280047512181175</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -5610,13 +5610,13 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>-0.01021924779387007</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C375">
-        <v>251.3887548507117</v>
+        <v>-0.01599940459277072</v>
       </c>
       <c r="D375">
-        <v>0.196670859379787</v>
+        <v>-0.011397749418685</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -5624,13 +5624,13 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>-0.01599940459277072</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C376">
-        <v>252.1444975765923</v>
+        <v>-0.01454722422028354</v>
       </c>
       <c r="D376">
-        <v>0.1859586580210185</v>
+        <v>-0.01036323667164063</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -5638,13 +5638,13 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>-0.01454722422028354</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C377">
-        <v>252.9002403024728</v>
+        <v>-0.01107046181512672</v>
       </c>
       <c r="D377">
-        <v>0.1904102450911555</v>
+        <v>-0.007886440335095241</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -5652,13 +5652,13 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>-0.01107046181512672</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C378">
-        <v>253.6559830283533</v>
+        <v>0.02914395786250079</v>
       </c>
       <c r="D378">
-        <v>0.1861440465477847</v>
+        <v>0.02076174315484159</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -5666,13 +5666,13 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>0.02914395786250079</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C379">
-        <v>254.4117257542339</v>
+        <v>-0.02265196811640013</v>
       </c>
       <c r="D379">
-        <v>0.1864710786369146</v>
+        <v>-0.01613694153015102</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -5680,13 +5680,13 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>-0.02265196811640013</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C380">
-        <v>255.1674684801144</v>
+        <v>0.001262458354116092</v>
       </c>
       <c r="D380">
-        <v>0.1924441630915551</v>
+        <v>0.0008993574659798536</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -5694,13 +5694,13 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>0.001262458354116092</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C381">
-        <v>255.923211205995</v>
+        <v>0.01555898248543564</v>
       </c>
       <c r="D381">
-        <v>0.1826786919018807</v>
+        <v>0.01108399894198772</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -5708,13 +5708,13 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>0.01555898248543564</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C382">
-        <v>256.6789539318755</v>
+        <v>0.02157560255904656</v>
       </c>
       <c r="D382">
-        <v>0.1865364660492269</v>
+        <v>0.01537015393912013</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -5722,13 +5722,13 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>0.02157560255904656</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C383">
-        <v>257.4346966577561</v>
+        <v>-0.007895728280757908</v>
       </c>
       <c r="D383">
-        <v>0.1634581368516884</v>
+        <v>-0.005624805091982389</v>
       </c>
     </row>
     <row r="384" spans="1:4">
@@ -5736,13 +5736,13 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>-0.007895728280757908</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C384">
-        <v>258.1904393836367</v>
+        <v>0.006637918524129205</v>
       </c>
       <c r="D384">
-        <v>0.1695647580909455</v>
+        <v>0.004728759221068612</v>
       </c>
     </row>
     <row r="385" spans="1:4">
@@ -5750,13 +5750,13 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>0.006637918524129205</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C385">
-        <v>258.9461821095172</v>
+        <v>0.0150555500247318</v>
       </c>
       <c r="D385">
-        <v>0.148988888143141</v>
+        <v>0.01072536078123223</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -5764,13 +5764,13 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>0.0150555500247318</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C386">
-        <v>259.7019248353978</v>
+        <v>-0.01058592729286989</v>
       </c>
       <c r="D386">
-        <v>0.1510192198089737</v>
+        <v>-0.007541264798258017</v>
       </c>
     </row>
     <row r="387" spans="1:4">
@@ -5778,13 +5778,13 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>-0.01058592729286989</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C387">
-        <v>260.4576675612784</v>
+        <v>0.01584933282778245</v>
       </c>
       <c r="D387">
-        <v>0.164562313551369</v>
+        <v>0.01129084041702571</v>
       </c>
     </row>
     <row r="388" spans="1:4">
@@ -5792,13 +5792,13 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>0.01584933282778245</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C388">
-        <v>261.2134102871589</v>
+        <v>-0.02152031614126404</v>
       </c>
       <c r="D388">
-        <v>0.1854240178439342</v>
+        <v>-0.01533076867746941</v>
       </c>
     </row>
     <row r="389" spans="1:4">
@@ -5806,13 +5806,13 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>-0.02152031614126404</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C389">
-        <v>261.9691530130395</v>
+        <v>0.02436418490662806</v>
       </c>
       <c r="D389">
-        <v>0.198948204543188</v>
+        <v>0.01735670054132704</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -5820,13 +5820,13 @@
         <v>388</v>
       </c>
       <c r="B390">
-        <v>0.02436418490662806</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C390">
-        <v>262.7248957389201</v>
+        <v>0.004423892968881127</v>
       </c>
       <c r="D390">
-        <v>0.1971162155363638</v>
+        <v>0.003151518746964667</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -5834,13 +5834,13 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>0.004423892968881127</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C391">
-        <v>263.4806384648006</v>
+        <v>0.01487904965457876</v>
       </c>
       <c r="D391">
-        <v>0.1862639767083422</v>
+        <v>0.01059962441525405</v>
       </c>
     </row>
     <row r="392" spans="1:4">
@@ -5848,13 +5848,13 @@
         <v>390</v>
       </c>
       <c r="B392">
-        <v>0.01487904965457876</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C392">
-        <v>264.2363811906812</v>
+        <v>0.02124749179530028</v>
       </c>
       <c r="D392">
-        <v>0.1787105573835752</v>
+        <v>0.01513641247423816</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -5862,13 +5862,13 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>0.02124749179530028</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C393">
-        <v>264.9921239165618</v>
+        <v>0.0003340182032127714</v>
       </c>
       <c r="D393">
-        <v>0.1887776012210583</v>
+        <v>0.0002379498411596379</v>
       </c>
     </row>
     <row r="394" spans="1:4">
@@ -5876,13 +5876,13 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>0.0003340182032127714</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C394">
-        <v>265.7478666424423</v>
+        <v>-0.01437781929287585</v>
       </c>
       <c r="D394">
-        <v>0.1807634890045969</v>
+        <v>-0.01024255499866414</v>
       </c>
     </row>
     <row r="395" spans="1:4">
@@ -5890,13 +5890,13 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>-0.01437781929287585</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C395">
-        <v>266.5036093683229</v>
+        <v>0.0008741913302978688</v>
       </c>
       <c r="D395">
-        <v>0.1896459433161662</v>
+        <v>0.0006227615327150435</v>
       </c>
     </row>
     <row r="396" spans="1:4">
@@ -5904,13 +5904,13 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>0.0008741913302978688</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C396">
-        <v>267.2593520942035</v>
+        <v>-0.009888929920012224</v>
       </c>
       <c r="D396">
-        <v>0.1965259211337264</v>
+        <v>-0.007044733733289324</v>
       </c>
     </row>
     <row r="397" spans="1:4">
@@ -5918,13 +5918,13 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>-0.009888929920012224</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C397">
-        <v>268.015094820084</v>
+        <v>-0.01586698886486104</v>
       </c>
       <c r="D397">
-        <v>0.1944665869621083</v>
+        <v>-0.01130341832798371</v>
       </c>
     </row>
     <row r="398" spans="1:4">
@@ -5932,13 +5932,13 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>-0.01586698886486104</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C398">
-        <v>268.7708375459646</v>
+        <v>0.006593722439226291</v>
       </c>
       <c r="D398">
-        <v>0.189211911875705</v>
+        <v>0.004697274555618127</v>
       </c>
     </row>
     <row r="399" spans="1:4">
@@ -5946,13 +5946,13 @@
         <v>397</v>
       </c>
       <c r="B399">
-        <v>0.006593722439226291</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C399">
-        <v>269.5265802718451</v>
+        <v>-0.006319123634428436</v>
       </c>
       <c r="D399">
-        <v>0.1922983144985708</v>
+        <v>-0.004501654253024458</v>
       </c>
     </row>
     <row r="400" spans="1:4">
@@ -5960,13 +5960,13 @@
         <v>398</v>
       </c>
       <c r="B400">
-        <v>-0.006319123634428436</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C400">
-        <v>270.2823229977257</v>
+        <v>0.0004844022570980044</v>
       </c>
       <c r="D400">
-        <v>0.1888481957170651</v>
+        <v>0.0003450813130098086</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -5974,13 +5974,13 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>0.0004844022570980044</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C401">
-        <v>271.0380657236063</v>
+        <v>0.008847375189888318</v>
       </c>
       <c r="D401">
-        <v>0.1942834700744782</v>
+        <v>0.006302744882956581</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -5988,13 +5988,13 @@
         <v>400</v>
       </c>
       <c r="B402">
-        <v>0.008847375189888318</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C402">
-        <v>271.7938084494868</v>
+        <v>-0.01446468540286094</v>
       </c>
       <c r="D402">
-        <v>0.2031504513421841</v>
+        <v>-0.01030443718614463</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -6002,13 +6002,13 @@
         <v>401</v>
       </c>
       <c r="B403">
-        <v>-0.01446468540286094</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C403">
-        <v>272.5495511753674</v>
+        <v>0.005714162513290155</v>
       </c>
       <c r="D403">
-        <v>0.2070413365871021</v>
+        <v>0.004070688511343268</v>
       </c>
     </row>
     <row r="404" spans="1:4">
@@ -6016,13 +6016,13 @@
         <v>402</v>
       </c>
       <c r="B404">
-        <v>0.005714162513290155</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C404">
-        <v>273.305293901248</v>
+        <v>-0.03418378539880607</v>
       </c>
       <c r="D404">
-        <v>0.2085619009941515</v>
+        <v>-0.0243520449713324</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -6030,13 +6030,13 @@
         <v>403</v>
       </c>
       <c r="B405">
-        <v>-0.03418378539880607</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C405">
-        <v>274.0610366271285</v>
+        <v>0.00904517082531342</v>
       </c>
       <c r="D405">
-        <v>0.2039421064958201</v>
+        <v>0.006443651694557778</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -6044,13 +6044,13 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>0.00904517082531342</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C406">
-        <v>274.8167793530091</v>
+        <v>-0.03047712495428456</v>
       </c>
       <c r="D406">
-        <v>0.2105734913477239</v>
+        <v>-0.02171147252491167</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -6058,13 +6058,13 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>-0.03047712495428456</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C407">
-        <v>275.5725220788897</v>
+        <v>0.003007341708282318</v>
       </c>
       <c r="D407">
-        <v>0.2058510081255222</v>
+        <v>0.002142387675029474</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -6072,13 +6072,13 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>0.003007341708282318</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C408">
-        <v>276.3282648047702</v>
+        <v>0.02006012680395131</v>
       </c>
       <c r="D408">
-        <v>0.2066183490919409</v>
+        <v>0.014290550457221</v>
       </c>
     </row>
     <row r="409" spans="1:4">
@@ -6086,13 +6086,13 @@
         <v>407</v>
       </c>
       <c r="B409">
-        <v>0.02006012680395131</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C409">
-        <v>277.0840075306508</v>
+        <v>0.0309005048193205</v>
       </c>
       <c r="D409">
-        <v>0.2057239157982318</v>
+        <v>0.0220130823493658</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -6100,13 +6100,13 @@
         <v>408</v>
       </c>
       <c r="B410">
-        <v>0.0309005048193205</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C410">
-        <v>277.8397502565314</v>
+        <v>0.02003212155713552</v>
       </c>
       <c r="D410">
-        <v>0.2043455465329989</v>
+        <v>0.01427059991570154</v>
       </c>
     </row>
     <row r="411" spans="1:4">
@@ -6114,13 +6114,13 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>0.02003212155713552</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C411">
-        <v>278.5954929824119</v>
+        <v>-0.002713555150644531</v>
       </c>
       <c r="D411">
-        <v>0.2040376798738437</v>
+        <v>-0.00193309828884528</v>
       </c>
     </row>
     <row r="412" spans="1:4">
@@ -6128,13 +6128,13 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>-0.002713555150644531</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C412">
-        <v>279.3512357082925</v>
+        <v>-0.01607441336061921</v>
       </c>
       <c r="D412">
-        <v>0.2005618030790798</v>
+        <v>-0.01145118460342479</v>
       </c>
     </row>
     <row r="413" spans="1:4">
@@ -6142,13 +6142,13 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>-0.01607441336061921</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C413">
-        <v>280.1069784341731</v>
+        <v>-0.0111881784428558</v>
       </c>
       <c r="D413">
-        <v>0.1996967099013794</v>
+        <v>-0.007970299994840013</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -6156,13 +6156,13 @@
         <v>412</v>
       </c>
       <c r="B414">
-        <v>-0.0111881784428558</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C414">
-        <v>280.8627211600536</v>
+        <v>0.01491137695434208</v>
       </c>
       <c r="D414">
-        <v>0.1977488671743488</v>
+        <v>0.01062265392613045</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -6170,13 +6170,13 @@
         <v>413</v>
       </c>
       <c r="B415">
-        <v>0.01491137695434208</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C415">
-        <v>281.6184638859342</v>
+        <v>-0.01187056003164599</v>
       </c>
       <c r="D415">
-        <v>0.2008125795863247</v>
+        <v>-0.008456418982072143</v>
       </c>
     </row>
     <row r="416" spans="1:4">
@@ -6184,13 +6184,13 @@
         <v>414</v>
       </c>
       <c r="B416">
-        <v>-0.01187056003164599</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C416">
-        <v>282.3742066118148</v>
+        <v>0.01315675452076359</v>
       </c>
       <c r="D416">
-        <v>0.2078654007317414</v>
+        <v>0.009372685734728669</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -6198,13 +6198,13 @@
         <v>415</v>
       </c>
       <c r="B417">
-        <v>0.01315675452076359</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C417">
-        <v>283.1299493376953</v>
+        <v>0.01019067209116287</v>
       </c>
       <c r="D417">
-        <v>0.2150594929262985</v>
+        <v>0.007259690585957389</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -6212,13 +6212,13 @@
         <v>416</v>
       </c>
       <c r="B418">
-        <v>0.01019067209116287</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C418">
-        <v>283.8856920635759</v>
+        <v>-0.003050300426190589</v>
       </c>
       <c r="D418">
-        <v>0.2182382007642284</v>
+        <v>-0.002172990857743391</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -6226,13 +6226,13 @@
         <v>417</v>
       </c>
       <c r="B419">
-        <v>-0.003050300426190589</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C419">
-        <v>284.6414347894565</v>
+        <v>-0.007783262122512014</v>
       </c>
       <c r="D419">
-        <v>0.2132341015592804</v>
+        <v>-0.005544685792396198</v>
       </c>
     </row>
     <row r="420" spans="1:4">
@@ -6240,13 +6240,13 @@
         <v>418</v>
       </c>
       <c r="B420">
-        <v>-0.007783262122512014</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C420">
-        <v>285.397177515337</v>
+        <v>0.004571601523285729</v>
       </c>
       <c r="D420">
-        <v>0.2080079251629873</v>
+        <v>0.003256744230846771</v>
       </c>
     </row>
     <row r="421" spans="1:4">
@@ -6254,13 +6254,13 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>0.004571601523285729</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C421">
-        <v>286.1529202412176</v>
+        <v>-0.005110340485131815</v>
       </c>
       <c r="D421">
-        <v>0.2055597194574831</v>
+        <v>-0.003640534243381282</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -6268,13 +6268,13 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>-0.005110340485131815</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C422">
-        <v>286.9086629670982</v>
+        <v>0.008050767047610208</v>
       </c>
       <c r="D422">
-        <v>0.2060521887262906</v>
+        <v>0.005735252515479817</v>
       </c>
     </row>
     <row r="423" spans="1:4">
@@ -6282,13 +6282,13 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>0.008050767047610208</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C423">
-        <v>287.6644056929787</v>
+        <v>0.01313383573810967</v>
       </c>
       <c r="D423">
-        <v>0.2068865726482607</v>
+        <v>0.009356358718297772</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -6296,13 +6296,13 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>0.01313383573810967</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C424">
-        <v>288.4201484188593</v>
+        <v>0.005763206906583385</v>
       </c>
       <c r="D424">
-        <v>0.2151503929836212</v>
+        <v>0.004105627043080895</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -6310,13 +6310,13 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>0.005763206906583385</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C425">
-        <v>289.1758911447399</v>
+        <v>0.002252270817819202</v>
       </c>
       <c r="D425">
-        <v>0.2163772347846091</v>
+        <v>0.001604485857937443</v>
       </c>
     </row>
     <row r="426" spans="1:4">
@@ -6324,13 +6324,13 @@
         <v>424</v>
       </c>
       <c r="B426">
-        <v>0.002252270817819202</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C426">
-        <v>289.9316338706204</v>
+        <v>-0.006842872478584283</v>
       </c>
       <c r="D426">
-        <v>0.2180755779374804</v>
+        <v>-0.004874765517846874</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -6338,13 +6338,13 @@
         <v>425</v>
       </c>
       <c r="B427">
-        <v>-0.006842872478584283</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C427">
-        <v>290.687376596501</v>
+        <v>0.009822454421811067</v>
       </c>
       <c r="D427">
-        <v>0.217971924638396</v>
+        <v>0.006997377529088989</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -6352,13 +6352,13 @@
         <v>426</v>
       </c>
       <c r="B428">
-        <v>0.009822454421811067</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C428">
-        <v>291.4431193223816</v>
+        <v>-0.00699497574696295</v>
       </c>
       <c r="D428">
-        <v>0.2115383371979948</v>
+        <v>-0.004983121733772957</v>
       </c>
     </row>
     <row r="429" spans="1:4">
@@ -6366,13 +6366,13 @@
         <v>427</v>
       </c>
       <c r="B429">
-        <v>-0.00699497574696295</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C429">
-        <v>292.1988620482621</v>
+        <v>0.001136590898727974</v>
       </c>
       <c r="D429">
-        <v>0.2162689583750787</v>
+        <v>0.0008096912719560145</v>
       </c>
     </row>
     <row r="430" spans="1:4">
@@ -6380,13 +6380,13 @@
         <v>428</v>
       </c>
       <c r="B430">
-        <v>0.001136590898727974</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C430">
-        <v>292.9546047741427</v>
+        <v>-0.001324840958112361</v>
       </c>
       <c r="D430">
-        <v>0.2191232050447022</v>
+        <v>-0.0009437979502686132</v>
       </c>
     </row>
     <row r="431" spans="1:4">
@@ -6394,13 +6394,13 @@
         <v>429</v>
       </c>
       <c r="B431">
-        <v>-0.001324840958112361</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C431">
-        <v>293.7103475000233</v>
+        <v>-0.002041650362109237</v>
       </c>
       <c r="D431">
-        <v>0.2292145228453766</v>
+        <v>-0.001454442825853854</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -6408,13 +6408,13 @@
         <v>430</v>
       </c>
       <c r="B432">
-        <v>-0.002041650362109237</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C432">
-        <v>294.4660902259038</v>
+        <v>-0.0004560142858665017</v>
       </c>
       <c r="D432">
-        <v>0.2392967637010788</v>
+        <v>-0.0003248581240326572</v>
       </c>
     </row>
     <row r="433" spans="1:4">
@@ -6422,13 +6422,13 @@
         <v>431</v>
       </c>
       <c r="B433">
-        <v>-0.0004560142858665017</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C433">
-        <v>295.2218329517844</v>
+        <v>-0.005148493437626023</v>
       </c>
       <c r="D433">
-        <v>0.2285020853048427</v>
+        <v>-0.003667713866822298</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -6436,13 +6436,13 @@
         <v>432</v>
       </c>
       <c r="B434">
-        <v>-0.005148493437626023</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C434">
-        <v>295.977575677665</v>
+        <v>-0.001281382169539214</v>
       </c>
       <c r="D434">
-        <v>0.2358730546414599</v>
+        <v>-0.000912838524289714</v>
       </c>
     </row>
     <row r="435" spans="1:4">
@@ -6450,13 +6450,13 @@
         <v>433</v>
       </c>
       <c r="B435">
-        <v>-0.001281382169539214</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C435">
-        <v>296.7333184035455</v>
+        <v>-0.002885158505258723</v>
       </c>
       <c r="D435">
-        <v>0.2370348135138235</v>
+        <v>-0.002055346090252969</v>
       </c>
     </row>
     <row r="436" spans="1:4">
@@ -6464,13 +6464,13 @@
         <v>434</v>
       </c>
       <c r="B436">
-        <v>-0.002885158505258723</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C436">
-        <v>297.4890611294261</v>
+        <v>0.004537992621485465</v>
       </c>
       <c r="D436">
-        <v>0.2328522973714751</v>
+        <v>0.00323280172481566</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -6478,13 +6478,13 @@
         <v>435</v>
       </c>
       <c r="B437">
-        <v>0.004537992621485465</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C437">
-        <v>298.2448038553067</v>
+        <v>0.01044668885808253</v>
       </c>
       <c r="D437">
-        <v>0.2285618450289438</v>
+        <v>0.007442073307727593</v>
       </c>
     </row>
     <row r="438" spans="1:4">
@@ -6492,13 +6492,13 @@
         <v>436</v>
       </c>
       <c r="B438">
-        <v>0.01044668885808253</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C438">
-        <v>299.0005465811872</v>
+        <v>0.01065594054114616</v>
       </c>
       <c r="D438">
-        <v>0.2318262275736176</v>
+        <v>0.007591141245547915</v>
       </c>
     </row>
     <row r="439" spans="1:4">
@@ -6506,13 +6506,13 @@
         <v>437</v>
       </c>
       <c r="B439">
-        <v>0.01065594054114616</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C439">
-        <v>299.7562893070678</v>
+        <v>0.004708324664546737</v>
       </c>
       <c r="D439">
-        <v>0.2444913708822584</v>
+        <v>0.003354143861863826</v>
       </c>
     </row>
     <row r="440" spans="1:4">
@@ -6520,13 +6520,13 @@
         <v>438</v>
       </c>
       <c r="B440">
-        <v>0.004708324664546737</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C440">
-        <v>300.5120320329484</v>
+        <v>-0.007412107344171304</v>
       </c>
       <c r="D440">
-        <v>0.248210398038808</v>
+        <v>-0.00528028038064816</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -6534,13 +6534,13 @@
         <v>439</v>
       </c>
       <c r="B441">
-        <v>-0.007412107344171304</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C441">
-        <v>301.2677747588289</v>
+        <v>-0.007741049659966137</v>
       </c>
       <c r="D441">
-        <v>0.2460426335651302</v>
+        <v>-0.005514614231441928</v>
       </c>
     </row>
     <row r="442" spans="1:4">
@@ -6548,13 +6548,13 @@
         <v>440</v>
       </c>
       <c r="B442">
-        <v>-0.007741049659966137</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C442">
-        <v>302.0235174847095</v>
+        <v>-0.003626299708820113</v>
       </c>
       <c r="D442">
-        <v>0.2481218531801171</v>
+        <v>-0.002583324595520111</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -6562,13 +6562,13 @@
         <v>441</v>
       </c>
       <c r="B443">
-        <v>-0.003626299708820113</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C443">
-        <v>302.7792602105901</v>
+        <v>0.0007294489846438879</v>
       </c>
       <c r="D443">
-        <v>0.2485005470197597</v>
+        <v>0.0005196491339710183</v>
       </c>
     </row>
     <row r="444" spans="1:4">
@@ -6576,13 +6576,13 @@
         <v>442</v>
       </c>
       <c r="B444">
-        <v>0.0007294489846438879</v>
+        <v>0.2705882352941176</v>
       </c>
       <c r="C444">
-        <v>303.0498484458842</v>
+        <v>0.001472962016317858</v>
       </c>
       <c r="D444">
-        <v>0.227061130721138</v>
+        <v>0.0008992633125376467</v>
       </c>
     </row>
     <row r="445" spans="1:4">
@@ -6590,13 +6590,13 @@
         <v>443</v>
       </c>
       <c r="B445">
-        <v>0.001472962016317858</v>
+        <v>0.2705882352941176</v>
       </c>
       <c r="C445">
-        <v>303.3204366811783</v>
+        <v>0.01458836051744594</v>
       </c>
       <c r="D445">
-        <v>0.2292585117496017</v>
+        <v>0.008906392193470444</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -6604,13 +6604,13 @@
         <v>444</v>
       </c>
       <c r="B446">
-        <v>0.01458836051744594</v>
+        <v>0.2705882352941176</v>
       </c>
       <c r="C446">
-        <v>303.5910249164723</v>
+        <v>0.002165779235797416</v>
       </c>
       <c r="D446">
-        <v>0.217371536063724</v>
+        <v>0.001322237632900476</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -6618,13 +6618,13 @@
         <v>445</v>
       </c>
       <c r="B447">
-        <v>0.002165779235797416</v>
+        <v>0.2705882352941176</v>
       </c>
       <c r="C447">
-        <v>303.8616131517664</v>
+        <v>0.002998134178983314</v>
       </c>
       <c r="D447">
-        <v>0.2328443715114508</v>
+        <v>0.001830401628390032</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -6632,13 +6632,13 @@
         <v>446</v>
       </c>
       <c r="B448">
-        <v>0.002998134178983314</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C448">
-        <v>304.617355877647</v>
+        <v>-0.0001535320040479959</v>
       </c>
       <c r="D448">
-        <v>0.2440755377213307</v>
+        <v>-0.0001093740269983725</v>
       </c>
     </row>
     <row r="449" spans="1:4">
@@ -6646,13 +6646,13 @@
         <v>447</v>
       </c>
       <c r="B449">
-        <v>-0.0001535320040479959</v>
+        <v>0.2705882352941176</v>
       </c>
       <c r="C449">
-        <v>304.8879441129411</v>
+        <v>-0.01135739757064691</v>
       </c>
       <c r="D449">
-        <v>0.2388941086244774</v>
+        <v>-0.006933845440711611</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -6660,13 +6660,13 @@
         <v>448</v>
       </c>
       <c r="B450">
-        <v>-0.01135739757064691</v>
+        <v>0.2705882352941176</v>
       </c>
       <c r="C450">
-        <v>305.1585323482352</v>
+        <v>0.008351102081378237</v>
       </c>
       <c r="D450">
-        <v>0.2453647052712803</v>
+        <v>0.005098461221568691</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -6674,13 +6674,13 @@
         <v>449</v>
       </c>
       <c r="B451">
-        <v>0.008351102081378237</v>
+        <v>0.2705882352941176</v>
       </c>
       <c r="C451">
-        <v>305.4291205835293</v>
+        <v>0.005038684014464501</v>
       </c>
       <c r="D451">
-        <v>0.2515206206287201</v>
+        <v>0.003076185011888347</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -6688,13 +6688,13 @@
         <v>450</v>
       </c>
       <c r="B452">
-        <v>0.005038684014464501</v>
+        <v>0.2705882352941176</v>
       </c>
       <c r="C452">
-        <v>305.6997088188234</v>
+        <v>0.01781449453135231</v>
       </c>
       <c r="D452">
-        <v>0.2541459427123539</v>
+        <v>0.01087599081712549</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -6702,13 +6702,13 @@
         <v>451</v>
       </c>
       <c r="B453">
-        <v>0.01781449453135231</v>
+        <v>0.2705882352941176</v>
       </c>
       <c r="C453">
-        <v>305.9702970541175</v>
+        <v>0.0177984707384482</v>
       </c>
       <c r="D453">
-        <v>0.250257806632803</v>
+        <v>0.01086620807396801</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -6716,13 +6716,13 @@
         <v>452</v>
       </c>
       <c r="B454">
-        <v>0.0177984707384482</v>
+        <v>0.2705882352941176</v>
       </c>
       <c r="C454">
-        <v>306.2408852894116</v>
+        <v>-0.01905615728845689</v>
       </c>
       <c r="D454">
-        <v>0.2438637214249168</v>
+        <v>-0.01163404279106555</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -6730,13 +6730,13 @@
         <v>453</v>
       </c>
       <c r="B455">
-        <v>-0.01905615728845689</v>
+        <v>0.2705882352941176</v>
       </c>
       <c r="C455">
-        <v>306.5114735247057</v>
+        <v>0.01301218488324274</v>
       </c>
       <c r="D455">
-        <v>0.24181108316807</v>
+        <v>0.007944115565660353</v>
       </c>
     </row>
     <row r="456" spans="1:4">
@@ -6744,13 +6744,13 @@
         <v>454</v>
       </c>
       <c r="B456">
-        <v>0.01301218488324274</v>
+        <v>0.2705882352941176</v>
       </c>
       <c r="C456">
-        <v>306.7820617599998</v>
+        <v>0.002050886463717205</v>
       </c>
       <c r="D456">
-        <v>0.2429763265001388</v>
+        <v>0.001252094035399054</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -6758,13 +6758,13 @@
         <v>455</v>
       </c>
       <c r="B457">
-        <v>0.002050886463717205</v>
+        <v>0.2705882352941176</v>
       </c>
       <c r="C457">
-        <v>307.0526499952939</v>
+        <v>-0.00738351644620483</v>
       </c>
       <c r="D457">
-        <v>0.2399851158324189</v>
+        <v>-0.004507737052302595</v>
       </c>
     </row>
     <row r="458" spans="1:4">
@@ -6772,13 +6772,13 @@
         <v>456</v>
       </c>
       <c r="B458">
-        <v>-0.00738351644620483</v>
+        <v>0.2705882352941176</v>
       </c>
       <c r="C458">
-        <v>307.323238230588</v>
+        <v>-0.007574059335238026</v>
       </c>
       <c r="D458">
-        <v>0.2443709843286448</v>
+        <v>-0.004624066073468276</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -6786,13 +6786,13 @@
         <v>457</v>
       </c>
       <c r="B459">
-        <v>-0.007574059335238026</v>
+        <v>0.2705882352941176</v>
       </c>
       <c r="C459">
-        <v>307.5938264658821</v>
+        <v>0.005762708710496334</v>
       </c>
       <c r="D459">
-        <v>0.2453007969515042</v>
+        <v>0.003518211920457419</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -6800,13 +6800,13 @@
         <v>458</v>
       </c>
       <c r="B460">
-        <v>0.005762708710496334</v>
+        <v>0.2705882352941176</v>
       </c>
       <c r="C460">
-        <v>307.8644147011762</v>
+        <v>0.02235814297667815</v>
       </c>
       <c r="D460">
-        <v>0.2393208031784246</v>
+        <v>0.01364994989189128</v>
       </c>
     </row>
     <row r="461" spans="1:4">
@@ -6814,13 +6814,13 @@
         <v>459</v>
       </c>
       <c r="B461">
-        <v>0.02235814297667815</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C461">
-        <v>308.6201574270568</v>
+        <v>0.005508649483402905</v>
       </c>
       <c r="D461">
-        <v>0.224649589587708</v>
+        <v>0.0039242839371388</v>
       </c>
     </row>
     <row r="462" spans="1:4">
@@ -6828,13 +6828,13 @@
         <v>460</v>
       </c>
       <c r="B462">
-        <v>0.005508649483402905</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C462">
-        <v>309.3759001529373</v>
+        <v>-0.003210908161031867</v>
       </c>
       <c r="D462">
-        <v>0.2213619788367505</v>
+        <v>-0.002287405535227741</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -6842,13 +6842,13 @@
         <v>461</v>
       </c>
       <c r="B463">
-        <v>-0.003210908161031867</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C463">
-        <v>310.1316428788179</v>
+        <v>0.003079754886384123</v>
       </c>
       <c r="D463">
-        <v>0.2263657848444917</v>
+        <v>0.002193973798364833</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -6856,13 +6856,13 @@
         <v>462</v>
       </c>
       <c r="B464">
-        <v>0.003079754886384123</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C464">
-        <v>310.8873856046985</v>
+        <v>0.0005609240095063583</v>
       </c>
       <c r="D464">
-        <v>0.2015394316225696</v>
+        <v>0.0003995943265392723</v>
       </c>
     </row>
     <row r="465" spans="1:4">
@@ -6870,13 +6870,13 @@
         <v>463</v>
       </c>
       <c r="B465">
-        <v>0.0005609240095063583</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C465">
-        <v>311.643128330579</v>
+        <v>-0.03175621595283928</v>
       </c>
       <c r="D465">
-        <v>0.2054151876459135</v>
+        <v>-0.02262267885141519</v>
       </c>
     </row>
     <row r="466" spans="1:4">
@@ -6884,13 +6884,13 @@
         <v>464</v>
       </c>
       <c r="B466">
-        <v>-0.03175621595283928</v>
+        <v>0.2705882352941176</v>
       </c>
       <c r="C466">
-        <v>311.9137165658731</v>
+        <v>0.003879100142128777</v>
       </c>
       <c r="D466">
-        <v>0.2199342322238098</v>
+        <v>0.002368243311661348</v>
       </c>
     </row>
     <row r="467" spans="1:4">
@@ -6898,13 +6898,13 @@
         <v>465</v>
       </c>
       <c r="B467">
-        <v>0.003879100142128777</v>
+        <v>0.2705882352941176</v>
       </c>
       <c r="C467">
-        <v>312.1843048011672</v>
+        <v>-0.02098442121565469</v>
       </c>
       <c r="D467">
-        <v>0.2112830774430546</v>
+        <v>-0.01281127410280941</v>
       </c>
     </row>
     <row r="468" spans="1:4">
@@ -6912,13 +6912,13 @@
         <v>466</v>
       </c>
       <c r="B468">
-        <v>-0.02098442121565469</v>
+        <v>0.2705882352941176</v>
       </c>
       <c r="C468">
-        <v>312.4548930364613</v>
+        <v>0.02731464293490227</v>
       </c>
       <c r="D468">
-        <v>0.1950140910663785</v>
+        <v>0.01667596042145506</v>
       </c>
     </row>
     <row r="469" spans="1:4">
@@ -6926,13 +6926,13 @@
         <v>467</v>
       </c>
       <c r="B469">
-        <v>0.02731464293490227</v>
+        <v>0.2705882352941176</v>
       </c>
       <c r="C469">
-        <v>312.7254812717554</v>
+        <v>0.01982670182215873</v>
       </c>
       <c r="D469">
-        <v>0.181230745937893</v>
+        <v>0.01210447069223213</v>
       </c>
     </row>
     <row r="470" spans="1:4">
@@ -6940,13 +6940,13 @@
         <v>468</v>
       </c>
       <c r="B470">
-        <v>0.01982670182215873</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C470">
-        <v>313.481223997636</v>
+        <v>-0.007674769641679902</v>
       </c>
       <c r="D470">
-        <v>0.186073036841843</v>
+        <v>-0.005467397284366677</v>
       </c>
     </row>
     <row r="471" spans="1:4">
@@ -6954,13 +6954,13 @@
         <v>469</v>
       </c>
       <c r="B471">
-        <v>-0.007674769641679902</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C471">
-        <v>314.2369667235166</v>
+        <v>0.009584293788483578</v>
       </c>
       <c r="D471">
-        <v>0.1849080972478887</v>
+        <v>0.00682771526420142</v>
       </c>
     </row>
     <row r="472" spans="1:4">
@@ -6968,13 +6968,13 @@
         <v>470</v>
       </c>
       <c r="B472">
-        <v>0.009584293788483578</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C472">
-        <v>314.9927094493971</v>
+        <v>0.009118185623870012</v>
       </c>
       <c r="D472">
-        <v>0.2080724799784732</v>
+        <v>0.006495666403791386</v>
       </c>
     </row>
     <row r="473" spans="1:4">
@@ -6982,13 +6982,13 @@
         <v>471</v>
       </c>
       <c r="B473">
-        <v>0.009118185623870012</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C473">
-        <v>315.7484521752777</v>
+        <v>0.003888645748205022</v>
       </c>
       <c r="D473">
-        <v>0.2106678651607133</v>
+        <v>0.002770216201426793</v>
       </c>
     </row>
     <row r="474" spans="1:4">
@@ -6996,13 +6996,13 @@
         <v>472</v>
       </c>
       <c r="B474">
-        <v>0.003888645748205022</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C474">
-        <v>316.5041949011583</v>
+        <v>-0.005759134823282608</v>
       </c>
       <c r="D474">
-        <v>0.2211184580774743</v>
+        <v>-0.004102726148562906</v>
       </c>
     </row>
     <row r="475" spans="1:4">
@@ -7010,13 +7010,13 @@
         <v>473</v>
       </c>
       <c r="B475">
-        <v>-0.005759134823282608</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C475">
-        <v>317.2599376270388</v>
+        <v>-0.009470964500817303</v>
       </c>
       <c r="D475">
-        <v>0.2218192588862837</v>
+        <v>-0.006746981083430598</v>
       </c>
     </row>
     <row r="476" spans="1:4">
@@ -7024,13 +7024,13 @@
         <v>474</v>
       </c>
       <c r="B476">
-        <v>-0.009470964500817303</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C476">
-        <v>318.0156803529194</v>
+        <v>-0.003040382389593255</v>
       </c>
       <c r="D476">
-        <v>0.2297062230383694</v>
+        <v>-0.002165925388825076</v>
       </c>
     </row>
     <row r="477" spans="1:4">
@@ -7038,13 +7038,13 @@
         <v>475</v>
       </c>
       <c r="B477">
-        <v>-0.003040382389593255</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C477">
-        <v>318.7714230788</v>
+        <v>0.001725966713616245</v>
       </c>
       <c r="D477">
-        <v>0.2238161018888223</v>
+        <v>0.001229554262017851</v>
       </c>
     </row>
     <row r="478" spans="1:4">
@@ -7052,13 +7052,13 @@
         <v>476</v>
       </c>
       <c r="B478">
-        <v>0.001725966713616245</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C478">
-        <v>319.5271658046805</v>
+        <v>-0.00443060252207772</v>
       </c>
       <c r="D478">
-        <v>0.2332387428062189</v>
+        <v>-0.003156298537712672</v>
       </c>
     </row>
     <row r="479" spans="1:4">
@@ -7066,13 +7066,13 @@
         <v>477</v>
       </c>
       <c r="B479">
-        <v>-0.00443060252207772</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C479">
-        <v>320.2829085305611</v>
+        <v>0.006496379619992609</v>
       </c>
       <c r="D479">
-        <v>0.2154600903808183</v>
+        <v>0.004627928908728544</v>
       </c>
     </row>
     <row r="480" spans="1:4">
@@ -7080,13 +7080,13 @@
         <v>478</v>
       </c>
       <c r="B480">
-        <v>0.006496379619992609</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C480">
-        <v>321.0386512564417</v>
+        <v>0.001377245072156974</v>
       </c>
       <c r="D480">
-        <v>0.2208186182069551</v>
+        <v>0.0009811298995249357</v>
       </c>
     </row>
     <row r="481" spans="1:4">
@@ -7094,13 +7094,13 @@
         <v>479</v>
       </c>
       <c r="B481">
-        <v>0.001377245072156974</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C481">
-        <v>321.7943939823222</v>
+        <v>-0.008857609321516691</v>
       </c>
       <c r="D481">
-        <v>0.2252012957092286</v>
+        <v>-0.006310035533501835</v>
       </c>
     </row>
     <row r="482" spans="1:4">
@@ -7108,13 +7108,13 @@
         <v>480</v>
       </c>
       <c r="B482">
-        <v>-0.008857609321516691</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C482">
-        <v>322.5501367082028</v>
+        <v>-0.02173110594932481</v>
       </c>
       <c r="D482">
-        <v>0.2203457187043898</v>
+        <v>-0.01548093235377115</v>
       </c>
     </row>
     <row r="483" spans="1:4">
@@ -7122,13 +7122,13 @@
         <v>481</v>
       </c>
       <c r="B483">
-        <v>-0.02173110594932481</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C483">
-        <v>323.3058794340834</v>
+        <v>-0.004869632434115978</v>
       </c>
       <c r="D483">
-        <v>0.2100277012862541</v>
+        <v>-0.003469057234181939</v>
       </c>
     </row>
     <row r="484" spans="1:4">
@@ -7136,13 +7136,13 @@
         <v>482</v>
       </c>
       <c r="B484">
-        <v>-0.004869632434115978</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C484">
-        <v>324.0616221599639</v>
+        <v>0.00741167305838264</v>
       </c>
       <c r="D484">
-        <v>0.2139828594720348</v>
+        <v>0.005279971001598047</v>
       </c>
     </row>
     <row r="485" spans="1:4">
@@ -7150,13 +7150,13 @@
         <v>483</v>
       </c>
       <c r="B485">
-        <v>0.00741167305838264</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C485">
-        <v>324.8173648858445</v>
+        <v>-0.03677297102008836</v>
       </c>
       <c r="D485">
-        <v>0.2193836430376564</v>
+        <v>-0.026196544167457</v>
       </c>
     </row>
     <row r="486" spans="1:4">
@@ -7164,13 +7164,13 @@
         <v>484</v>
       </c>
       <c r="B486">
-        <v>-0.03677297102008836</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C486">
-        <v>325.573107611725</v>
+        <v>0.005740797395950459</v>
       </c>
       <c r="D486">
-        <v>0.2166630795675178</v>
+        <v>0.00408966282483087</v>
       </c>
     </row>
     <row r="487" spans="1:4">
@@ -7178,13 +7178,13 @@
         <v>485</v>
       </c>
       <c r="B487">
-        <v>0.005740797395950459</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C487">
-        <v>326.3288503376056</v>
+        <v>0.02150571212492469</v>
       </c>
       <c r="D487">
-        <v>0.2217177386148806</v>
+        <v>0.01532036498289584</v>
       </c>
     </row>
     <row r="488" spans="1:4">
@@ -7192,13 +7192,13 @@
         <v>486</v>
       </c>
       <c r="B488">
-        <v>0.02150571212492469</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C488">
-        <v>327.0845930634862</v>
+        <v>-0.0128141520101348</v>
       </c>
       <c r="D488">
-        <v>0.2272687372585287</v>
+        <v>-0.009128620554445417</v>
       </c>
     </row>
     <row r="489" spans="1:4">
@@ -7206,13 +7206,13 @@
         <v>487</v>
       </c>
       <c r="B489">
-        <v>-0.0128141520101348</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C489">
-        <v>327.8403357893667</v>
+        <v>-0.02409773836728668</v>
       </c>
       <c r="D489">
-        <v>0.2338921821829621</v>
+        <v>-0.01716688779727898</v>
       </c>
     </row>
     <row r="490" spans="1:4">
@@ -7220,13 +7220,13 @@
         <v>488</v>
       </c>
       <c r="B490">
-        <v>-0.02409773836728668</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C490">
-        <v>328.5960785152473</v>
+        <v>-0.02041598886630336</v>
       </c>
       <c r="D490">
-        <v>0.2491101471252967</v>
+        <v>-0.01454406155451132</v>
       </c>
     </row>
     <row r="491" spans="1:4">
@@ -7234,13 +7234,13 @@
         <v>489</v>
       </c>
       <c r="B491">
-        <v>-0.02041598886630336</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C491">
-        <v>329.3518212411279</v>
+        <v>0.007172435737543559</v>
       </c>
       <c r="D491">
-        <v>0.2513292902802054</v>
+        <v>0.005109541719763805</v>
       </c>
     </row>
     <row r="492" spans="1:4">
@@ -7248,13 +7248,13 @@
         <v>490</v>
       </c>
       <c r="B492">
-        <v>0.007172435737543559</v>
+        <v>0.5614525139664804</v>
       </c>
       <c r="C492">
-        <v>329.9132737550943</v>
+        <v>-0.001877889995098414</v>
       </c>
       <c r="D492">
-        <v>0.2508821554074283</v>
+        <v>-0.001264025974230438</v>
       </c>
     </row>
     <row r="493" spans="1:4">
@@ -7262,13 +7262,13 @@
         <v>491</v>
       </c>
       <c r="B493">
-        <v>-0.001877889995098414</v>
+        <v>0.5614525139664804</v>
       </c>
       <c r="C493">
-        <v>330.4747262690608</v>
+        <v>0.03734113150428264</v>
       </c>
       <c r="D493">
-        <v>0.2540978394072144</v>
+        <v>0.02513467788409735</v>
       </c>
     </row>
     <row r="494" spans="1:4">
@@ -7276,13 +7276,13 @@
         <v>492</v>
       </c>
       <c r="B494">
-        <v>0.03734113150428264</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C494">
-        <v>331.2304689949414</v>
+        <v>0.003844302996873772</v>
       </c>
       <c r="D494">
-        <v>0.2618817608656074</v>
+        <v>0.002738627052888289</v>
       </c>
     </row>
     <row r="495" spans="1:4">
@@ -7290,13 +7290,13 @@
         <v>493</v>
       </c>
       <c r="B495">
-        <v>0.003844302996873772</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C495">
-        <v>331.9862117208219</v>
+        <v>0.01547949257933912</v>
       </c>
       <c r="D495">
-        <v>0.2656261714164529</v>
+        <v>0.01102737145777419</v>
       </c>
     </row>
     <row r="496" spans="1:4">
@@ -7304,13 +7304,13 @@
         <v>494</v>
       </c>
       <c r="B496">
-        <v>0.01547949257933912</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C496">
-        <v>332.7419544467025</v>
+        <v>0.001038031143875351</v>
       </c>
       <c r="D496">
-        <v>0.2725826258874668</v>
+        <v>0.0007394786973527818</v>
       </c>
     </row>
     <row r="497" spans="1:4">
@@ -7318,13 +7318,13 @@
         <v>495</v>
       </c>
       <c r="B497">
-        <v>0.001038031143875351</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C497">
-        <v>333.4976971725831</v>
+        <v>0.01168222741409419</v>
       </c>
       <c r="D497">
-        <v>0.2646122233841415</v>
+        <v>0.008322253490489387</v>
       </c>
     </row>
     <row r="498" spans="1:4">
@@ -7332,13 +7332,13 @@
         <v>496</v>
       </c>
       <c r="B498">
-        <v>0.01168222741409419</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C498">
-        <v>334.2534398984636</v>
+        <v>-0.008724489352139209</v>
       </c>
       <c r="D498">
-        <v>0.2702245199916469</v>
+        <v>-0.006215202751144851</v>
       </c>
     </row>
     <row r="499" spans="1:4">
@@ -7346,13 +7346,13 @@
         <v>497</v>
       </c>
       <c r="B499">
-        <v>-0.008724489352139209</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C499">
-        <v>335.0091826243442</v>
+        <v>0.01395688276448759</v>
       </c>
       <c r="D499">
-        <v>0.2754905967639071</v>
+        <v>0.009942685772661289</v>
       </c>
     </row>
     <row r="500" spans="1:4">
@@ -7360,13 +7360,13 @@
         <v>498</v>
       </c>
       <c r="B500">
-        <v>0.01395688276448759</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C500">
-        <v>335.7649253502248</v>
+        <v>-0.02633386645921831</v>
       </c>
       <c r="D500">
-        <v>0.2677490958452406</v>
+        <v>-0.01875987380573552</v>
       </c>
     </row>
     <row r="501" spans="1:4">
@@ -7374,13 +7374,13 @@
         <v>499</v>
       </c>
       <c r="B501">
-        <v>-0.02633386645921831</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C501">
-        <v>336.5206680761053</v>
+        <v>0.007937089539468367</v>
       </c>
       <c r="D501">
-        <v>0.259447511072421</v>
+        <v>0.005654270267369992</v>
       </c>
     </row>
     <row r="502" spans="1:4">
@@ -7388,13 +7388,13 @@
         <v>500</v>
       </c>
       <c r="B502">
-        <v>0.007937089539468367</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C502">
-        <v>337.2764108019859</v>
+        <v>0.006491653097048022</v>
       </c>
       <c r="D502">
-        <v>0.2681235951403637</v>
+        <v>0.004624561800669509</v>
       </c>
     </row>
     <row r="503" spans="1:4">
@@ -7402,13 +7402,13 @@
         <v>501</v>
       </c>
       <c r="B503">
-        <v>0.006491653097048022</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C503">
-        <v>338.0321535278665</v>
+        <v>-0.007192115204704308</v>
       </c>
       <c r="D503">
-        <v>0.2602391259017561</v>
+        <v>-0.005123561093678057</v>
       </c>
     </row>
     <row r="504" spans="1:4">
@@ -7416,10 +7416,13 @@
         <v>502</v>
       </c>
       <c r="B504">
-        <v>-0.007192115204704308</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C504">
-        <v>338.787896253747</v>
+        <v>-0.01528312080756322</v>
+      </c>
+      <c r="D504">
+        <v>-0.0108874789864871</v>
       </c>
     </row>
     <row r="505" spans="1:4">
@@ -7427,10 +7430,13 @@
         <v>503</v>
       </c>
       <c r="B505">
-        <v>-0.01528312080756322</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C505">
-        <v>339.5436389796276</v>
+        <v>0.005858408443860874</v>
+      </c>
+      <c r="D505">
+        <v>0.004173447271006922</v>
       </c>
     </row>
     <row r="506" spans="1:4">
@@ -7438,10 +7444,13 @@
         <v>504</v>
       </c>
       <c r="B506">
-        <v>0.005858408443860874</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C506">
-        <v>340.2993817055082</v>
+        <v>0.007999679041422958</v>
+      </c>
+      <c r="D506">
+        <v>0.005698858142836374</v>
       </c>
     </row>
     <row r="507" spans="1:4">
@@ -7449,10 +7458,13 @@
         <v>505</v>
       </c>
       <c r="B507">
-        <v>0.007999679041422958</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C507">
-        <v>341.0551244313887</v>
+        <v>-0.004029717967493518</v>
+      </c>
+      <c r="D507">
+        <v>-0.002870714054085296</v>
       </c>
     </row>
     <row r="508" spans="1:4">
@@ -7460,10 +7472,13 @@
         <v>506</v>
       </c>
       <c r="B508">
-        <v>-0.004029717967493518</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C508">
-        <v>341.8108671572693</v>
+        <v>0.007486996942465574</v>
+      </c>
+      <c r="D508">
+        <v>0.005333630670683938</v>
       </c>
     </row>
     <row r="509" spans="1:4">
@@ -7471,10 +7486,13 @@
         <v>507</v>
       </c>
       <c r="B509">
-        <v>0.007486996942465574</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C509">
-        <v>342.5666098831499</v>
+        <v>0.008222178683705117</v>
+      </c>
+      <c r="D509">
+        <v>0.005857363739327445</v>
       </c>
     </row>
     <row r="510" spans="1:4">
@@ -7482,10 +7500,13 @@
         <v>508</v>
       </c>
       <c r="B510">
-        <v>0.008222178683705117</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C510">
-        <v>343.3223526090304</v>
+        <v>0.009810693744753074</v>
+      </c>
+      <c r="D510">
+        <v>0.006988999389182354</v>
       </c>
     </row>
     <row r="511" spans="1:4">
@@ -7493,10 +7514,13 @@
         <v>509</v>
       </c>
       <c r="B511">
-        <v>0.009810693744753074</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C511">
-        <v>344.078095334911</v>
+        <v>0.02254095794121902</v>
+      </c>
+      <c r="D511">
+        <v>0.01605785945229605</v>
       </c>
     </row>
     <row r="512" spans="1:4">
@@ -7504,161 +7528,181 @@
         <v>510</v>
       </c>
       <c r="B512">
-        <v>0.02254095794121902</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C512">
-        <v>344.8338380607915</v>
-      </c>
-    </row>
-    <row r="513" spans="1:3">
+        <v>0.003287010629206222</v>
+      </c>
+      <c r="D512">
+        <v>0.002341619856602343</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4">
       <c r="A513" s="1">
         <v>511</v>
       </c>
       <c r="B513">
-        <v>0.003287010629206222</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C513">
-        <v>345.5895807866721</v>
-      </c>
-    </row>
-    <row r="514" spans="1:3">
+        <v>-0.0006622993547109601</v>
+      </c>
+      <c r="D513">
+        <v>-0.0004718126878648448</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4">
       <c r="A514" s="1">
         <v>512</v>
       </c>
       <c r="B514">
-        <v>-0.0006622993547109601</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C514">
-        <v>346.3453235125527</v>
-      </c>
-    </row>
-    <row r="515" spans="1:3">
+        <v>0.004763094018556124</v>
+      </c>
+      <c r="D514">
+        <v>0.003393160774599711</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4">
       <c r="A515" s="1">
         <v>513</v>
       </c>
       <c r="B515">
-        <v>0.004763094018556124</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C515">
-        <v>347.1010662384332</v>
-      </c>
-    </row>
-    <row r="516" spans="1:3">
+        <v>0.01152959984309643</v>
+      </c>
+      <c r="D515">
+        <v>0.008213523768797049</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4">
       <c r="A516" s="1">
         <v>514</v>
       </c>
       <c r="B516">
-        <v>0.01152959984309643</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C516">
-        <v>347.8568089643138</v>
-      </c>
-    </row>
-    <row r="517" spans="1:3">
+        <v>0.005546247547624894</v>
+      </c>
+      <c r="D516">
+        <v>0.003951068266027107</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4">
       <c r="A517" s="1">
         <v>515</v>
       </c>
       <c r="B517">
-        <v>0.005546247547624894</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C517">
-        <v>348.6125516901944</v>
-      </c>
-    </row>
-    <row r="518" spans="1:3">
+        <v>0.01030394985435379</v>
+      </c>
+      <c r="D517">
+        <v>0.007340388061421111</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4">
       <c r="A518" s="1">
         <v>516</v>
       </c>
       <c r="B518">
-        <v>0.01030394985435379</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C518">
-        <v>349.3682944160749</v>
-      </c>
-    </row>
-    <row r="519" spans="1:3">
+        <v>-0.01180581689357485</v>
+      </c>
+      <c r="D518">
+        <v>-0.00841029688671319</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4">
       <c r="A519" s="1">
         <v>517</v>
       </c>
       <c r="B519">
-        <v>-0.01180581689357485</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C519">
-        <v>350.1240371419555</v>
-      </c>
-    </row>
-    <row r="520" spans="1:3">
+        <v>0.008312973663876733</v>
+      </c>
+      <c r="D519">
+        <v>0.005922044798329987</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4">
       <c r="A520" s="1">
         <v>518</v>
       </c>
       <c r="B520">
-        <v>0.008312973663876733</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C520">
-        <v>350.8797798678361</v>
-      </c>
-    </row>
-    <row r="521" spans="1:3">
+        <v>0.007800150380720794</v>
+      </c>
+      <c r="D520">
+        <v>0.005556716748552447</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4">
       <c r="A521" s="1">
         <v>519</v>
       </c>
       <c r="B521">
-        <v>0.007800150380720794</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C521">
-        <v>351.6355225937166</v>
-      </c>
-    </row>
-    <row r="522" spans="1:3">
+        <v>-0.01146676623785137</v>
+      </c>
+      <c r="D521">
+        <v>-0.008168761997600927</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4">
       <c r="A522" s="1">
         <v>520</v>
       </c>
       <c r="B522">
-        <v>-0.01146676623785137</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C522">
-        <v>352.3912653195972</v>
-      </c>
-    </row>
-    <row r="523" spans="1:3">
+        <v>-0.01229636642735521</v>
+      </c>
+      <c r="D522">
+        <v>-0.008759757432639233</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4">
       <c r="A523" s="1">
         <v>521</v>
       </c>
       <c r="B523">
-        <v>-0.01229636642735521</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C523">
-        <v>353.1470080454778</v>
-      </c>
-    </row>
-    <row r="524" spans="1:3">
+        <v>0.01285107744767711</v>
+      </c>
+      <c r="D523">
+        <v>0.009154925713605691</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4">
       <c r="A524" s="1">
         <v>522</v>
       </c>
       <c r="B524">
-        <v>0.01285107744767711</v>
+        <v>0.7557427258805512</v>
       </c>
       <c r="C524">
-        <v>353.9027507713583</v>
-      </c>
-    </row>
-    <row r="525" spans="1:3">
-      <c r="A525" s="1">
-        <v>523</v>
-      </c>
-      <c r="B525">
         <v>-0.01167853193050039</v>
       </c>
-      <c r="C525">
-        <v>354.6584934972389</v>
-      </c>
-    </row>
-    <row r="526" spans="1:3">
-      <c r="A526" s="1">
-        <v>524</v>
-      </c>
-      <c r="C526">
-        <v>355.4142362231195</v>
+      <c r="D524">
+        <v>-0.008319620880273252</v>
       </c>
     </row>
   </sheetData>
